--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4387E051-CD02-044E-8DF1-7F5085CB1C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6134F79-8681-854C-BE6C-8091F84F85D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11011,7 +11011,7 @@
     <definedName name="zer" hidden="1">{#N/A,#N/A,FALSE,"Calc";#N/A,#N/A,FALSE,"Sensitivity";#N/A,#N/A,FALSE,"LT Earn.Dil.";#N/A,#N/A,FALSE,"Dil. AVP"}</definedName>
     <definedName name="ZERTRET" hidden="1">#REF!</definedName>
     <definedName name="zezrzrzerz" hidden="1">{"equity comps",#N/A,FALSE,"CS Comps";"equity comps",#N/A,FALSE,"PS Comps";"equity comps",#N/A,FALSE,"GIC_Comps";"equity comps",#N/A,FALSE,"GIC2_Comps"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">quote!$A$1:$J$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">quote!$A$1:$J$63</definedName>
     <definedName name="zz" hidden="1">{"MARCH",#N/A,FALSE,"CONSO OPEX 5899";"FullOpex",#N/A,FALSE,"CONSO OPEX 5899"}</definedName>
     <definedName name="ZZZ" hidden="1">{#N/A,#N/A,TRUE,"Total Market";#N/A,#N/A,TRUE,"Pricing Table";#N/A,#N/A,TRUE,"Residential Minutes";#N/A,#N/A,TRUE,"Small Bus Minutes";#N/A,#N/A,TRUE,"Medium Bus Minures";#N/A,#N/A,TRUE,"Corporate Min penetration";#N/A,#N/A,TRUE,"Line Penetration";#N/A,#N/A,TRUE,"Direct Line Penetration";#N/A,#N/A,TRUE,"Indirect Lines";#N/A,#N/A,TRUE,"Penetration% by Customer";#N/A,#N/A,TRUE,"Penetration% by Product";#N/A,#N/A,TRUE,"Minutes-Revenue by Product";#N/A,#N/A,TRUE,"Product Minute penetration";#N/A,#N/A,TRUE,"Customer Minutes Penetration"}</definedName>
     <definedName name="ZZZA" hidden="1">{"equity comps",#N/A,FALSE,"CS Comps";"equity comps",#N/A,FALSE,"PS Comps";"equity comps",#N/A,FALSE,"GIC_Comps";"equity comps",#N/A,FALSE,"GIC2_Comps";"debt comps",#N/A,FALSE,"CS Comps";"debt comps",#N/A,FALSE,"PS Comps";"debt comps",#N/A,FALSE,"GIC_Comps";"debt comps",#N/A,FALSE,"GIC2_Comps"}</definedName>
@@ -11219,7 +11219,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -11497,6 +11497,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF9B9B9B"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -11978,7 +11986,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
@@ -12078,11 +12086,6 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="47" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="47" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="24" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -12146,9 +12149,6 @@
     <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="47" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -12219,6 +12219,85 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="24" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="44" fillId="24" borderId="14" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="20" xfId="47" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="19" xfId="47" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="24" borderId="11" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="24" borderId="12" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="19" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12267,82 +12346,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="19" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="24" borderId="11" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="24" borderId="12" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -12413,10 +12424,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9B9B9B"/>
       <color rgb="FF010F96"/>
       <color rgb="FF87BF41"/>
       <color rgb="FF240058"/>
-      <color rgb="FF9B9B9B"/>
       <color rgb="FFC0EB00"/>
       <color rgb="FF737373"/>
       <color rgb="FFC3004B"/>
@@ -12775,10 +12786,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -13364,7 +13375,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="68"/>
+      <c r="A1" s="65"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -13376,21 +13387,21 @@
       <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="20">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="69"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -13402,105 +13413,102 @@
       <c r="J3" s="24"/>
     </row>
     <row r="5" spans="1:10" ht="14">
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="135" t="s">
+      <c r="E5" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137">
+      <c r="F5" s="101"/>
+      <c r="G5" s="115">
         <f ca="1">NOW()</f>
-        <v>45181.737074074073</v>
+        <v>45196.822412499998</v>
       </c>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="138"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="116"/>
     </row>
     <row r="6" spans="1:10" ht="55" customHeight="1">
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="E6" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="134"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
+      <c r="F6" s="99"/>
+      <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:10" ht="14">
-      <c r="A7" s="79"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="71" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="142" t="s">
+      <c r="E7" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="143"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
     </row>
     <row r="8" spans="1:10" ht="14">
-      <c r="C8" s="71">
+      <c r="C8" s="68">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="14">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="72" t="s">
+      <c r="B9" s="120"/>
+      <c r="C9" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="126"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="120"/>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="93">
+      <c r="B10" s="62"/>
+      <c r="C10" s="89">
         <v>10</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="130"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="38"/>
-      <c r="C11" s="93">
+      <c r="C11" s="89">
         <v>250</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
       <c r="H11" s="39"/>
       <c r="J11" s="8"/>
     </row>
@@ -13509,12 +13517,12 @@
         <v>7</v>
       </c>
       <c r="B12" s="41"/>
-      <c r="C12" s="93">
+      <c r="C12" s="89">
         <v>0</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -13525,25 +13533,25 @@
         <v>8</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="93">
+      <c r="C13" s="89">
         <v>12</v>
       </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="108"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="53" t="s">
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="50" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="18" t="str">
@@ -13565,60 +13573,60 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="112"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
     </row>
-    <row r="17" spans="1:10" ht="122" customHeight="1">
-      <c r="A17" s="116" t="s">
+    <row r="17" spans="1:11" ht="122" customHeight="1">
+      <c r="A17" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
       <c r="E17" s="33">
         <v>10</v>
       </c>
-      <c r="F17" s="96">
+      <c r="F17" s="92">
         <v>3109</v>
       </c>
       <c r="G17" s="34">
         <v>1</v>
       </c>
-      <c r="H17" s="94">
+      <c r="H17" s="90">
         <v>36</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="63">
         <v>0.15</v>
       </c>
-      <c r="J17" s="67">
+      <c r="J17" s="64">
         <f>F17*G17*(1-I17)</f>
         <v>2642.65</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="51"/>
+    <row r="18" spans="1:11" ht="14">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="48"/>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A19" s="44"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -13628,303 +13636,309 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
+    <row r="20" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="2"/>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="63">
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="60">
         <f>SUM(J17:J17)</f>
         <v>2642.65</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
+    <row r="21" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="D21" s="88" t="str">
+      <c r="D21" s="84" t="str">
         <f>"SUPPORT "&amp;C9&amp;"  ("&amp;C10&amp;"% Minimum " &amp; C11&amp;")"</f>
         <v>SUPPORT BUSINESS  (10% Minimum 250)</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="49">
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="46">
         <f>MAX(0.01*$C$10*J20,$C$11)</f>
         <v>264.26500000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="19" customFormat="1" ht="18" customHeight="1">
+    <row r="22" spans="1:11" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="11"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="88" t="str">
+      <c r="D22" s="84" t="str">
         <f>IF(C12&gt;0,"REMISE Exceptionnelle (-"&amp;C12&amp;"%)","")</f>
         <v/>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="95">
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="91">
         <f>(0-J20-J21)*($C$12/100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" customHeight="1">
+    <row r="23" spans="1:11" ht="16" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="88" t="str">
-        <f>"COUT MENSUEL HT avec SUPPORT  en "&amp;C6</f>
-        <v>COUT MENSUEL HT avec SUPPORT  en EURO</v>
+      <c r="D23" s="84" t="str">
+        <f>"MONTANT MENSUEL HT avec SUPPORT  en "&amp;C6</f>
+        <v>MONTANT MENSUEL HT avec SUPPORT  en EURO</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="62">
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="59">
         <f>J20+J21+J22</f>
         <v>2906.915</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14" customHeight="1">
+    <row r="24" spans="1:11" ht="14" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="84" t="str">
+        <f>"TVA ("&amp;$C$8&amp;"%)"</f>
+        <v>TVA (20%)</v>
+      </c>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="108">
+        <f>$C$8*J23/100</f>
+        <v>581.38300000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="20">
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="20">
         <f>SUM(E17:E18)</f>
         <v>10</v>
       </c>
+      <c r="K25" s="107"/>
     </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="D25" s="88" t="str">
-        <f>"COUT MENSUEL TTC avec SUPPORT  EN "&amp;C6</f>
-        <v>COUT MENSUEL TTC avec SUPPORT  EN EURO</v>
+    <row r="26" spans="1:11" ht="14" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="107"/>
+    </row>
+    <row r="27" spans="1:11" s="6" customFormat="1" ht="16" customHeight="1">
+      <c r="A27" s="11"/>
+      <c r="D27" s="84" t="str">
+        <f>"MONTANT MENSUEL TTC avec SUPPORT  EN "&amp;C6</f>
+        <v>MONTANT MENSUEL TTC avec SUPPORT  EN EURO</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="60">
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="45">
         <f>J23*(1+$C$8/100)</f>
         <v>3488.2979999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="D26" s="88" t="str">
+    <row r="28" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A28" s="11"/>
+      <c r="D28" s="84" t="str">
         <f>"Frais d'intallation TTC en "&amp;C6</f>
         <v>Frais d'intallation TTC en EURO</v>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="60">
-        <f>J24*(1+$C$8/100)</f>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="57">
+        <f>J25*(1+$C$8/100)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="D27" s="88" t="str">
+    <row r="29" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="D29" s="84" t="str">
         <f>"BUDGET EN "&amp;C6&amp;" HT ("&amp;$C$13&amp;" Mois)"</f>
         <v>BUDGET EN EURO HT (12 Mois)</v>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="48">
-        <f>J23*$C$13+J24</f>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="45">
+        <f>J23*$C$13+J25</f>
         <v>34892.979999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="D28" s="91" t="str">
+    <row r="30" spans="1:11" s="6" customFormat="1" ht="15.5" customHeight="1">
+      <c r="A30" s="11"/>
+      <c r="D30" s="87" t="str">
         <f>"BUDGET EN "&amp;C6&amp;" TTC ("&amp;$C$13&amp;" Mois) - "&amp;$C$7&amp;" "&amp;$C$8&amp;"%"</f>
         <v>BUDGET EN EURO TTC (12 Mois) - TVA 20%</v>
       </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="61">
-        <f>J27*1.2</f>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="58">
+        <f>J29*1.2</f>
         <v>41871.575999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14">
-      <c r="A29" s="11"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+    <row r="31" spans="1:11" ht="14">
+      <c r="A31" s="11"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" ht="14">
-      <c r="A30" s="50"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="4"/>
+    <row r="32" spans="1:11" s="6" customFormat="1" ht="14">
+      <c r="A32" s="47"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="14">
-      <c r="A31" s="27" t="s">
+    <row r="33" spans="1:10" ht="14">
+      <c r="A33" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
     </row>
-    <row r="32" spans="1:10" ht="14">
-      <c r="A32" s="104"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
+    <row r="34" spans="1:10" ht="14">
+      <c r="A34" s="129"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="31"/>
     </row>
-    <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80" t="s">
+    <row r="35" spans="1:10" ht="15">
+      <c r="A35" s="76"/>
+      <c r="B35" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="82" t="s">
+      <c r="C35" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="83"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="79"/>
     </row>
-    <row r="34" spans="1:10" ht="15">
-      <c r="A34" s="81"/>
-      <c r="B34" s="81" t="s">
+    <row r="36" spans="1:10" ht="15">
+      <c r="A36" s="77"/>
+      <c r="B36" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="82" t="s">
+      <c r="C36" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="83"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="79"/>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="100"/>
+    <row r="37" spans="1:10">
+      <c r="A37" s="96"/>
     </row>
-    <row r="36" spans="1:10" ht="15">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="84" t="s">
+    <row r="38" spans="1:10" ht="15">
+      <c r="A38" s="93"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="89"/>
-    </row>
-    <row r="37" spans="1:10" ht="14">
-      <c r="A37" s="37"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="103"/>
-    </row>
-    <row r="38" spans="1:10" ht="14">
-      <c r="A38" s="37"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="103"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="85"/>
     </row>
     <row r="39" spans="1:10" ht="14">
-      <c r="A39" s="35"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
+      <c r="A39" s="37"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="8"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="128"/>
     </row>
     <row r="40" spans="1:10" ht="14">
-      <c r="A40" s="32"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="5"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="8"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="128"/>
     </row>
     <row r="41" spans="1:10" ht="14">
-      <c r="A41" s="37"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="39"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="14" t="s">
-        <v>16</v>
+      <c r="C41" s="39"/>
+      <c r="D41" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="E41" s="17"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -13932,11 +13946,11 @@
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" ht="14">
-      <c r="A42" s="25"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="17"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -13944,13 +13958,13 @@
       <c r="J42" s="8"/>
     </row>
     <row r="43" spans="1:10" ht="14">
-      <c r="A43" s="97"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="11" t="s">
-        <v>17</v>
+      <c r="A43" s="37"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="14" t="s">
+        <v>16</v>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -13958,11 +13972,11 @@
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" ht="14">
-      <c r="A44" s="97"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="6"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -13970,10 +13984,12 @@
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:10" ht="14">
-      <c r="A45" s="97"/>
-      <c r="B45" s="98"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="94"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="11"/>
+      <c r="D45" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -13982,8 +13998,8 @@
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" ht="14">
-      <c r="A46" s="97"/>
-      <c r="B46" s="98"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="39"/>
       <c r="D46" s="11"/>
       <c r="E46" s="6"/>
@@ -13994,8 +14010,8 @@
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="14">
-      <c r="A47" s="97"/>
-      <c r="B47" s="98"/>
+      <c r="A47" s="93"/>
+      <c r="B47" s="94"/>
       <c r="C47" s="39"/>
       <c r="D47" s="11"/>
       <c r="E47" s="6"/>
@@ -14006,307 +14022,330 @@
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" ht="14">
-      <c r="A48" s="97"/>
-      <c r="B48" s="98"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="94"/>
       <c r="C48" s="39"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="101"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="1" t="s">
+    <row r="49" spans="1:10" ht="14">
+      <c r="A49" s="93"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" ht="14">
+      <c r="A50" s="93"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="97"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="5"/>
-      <c r="B50" s="26"/>
+    <row r="52" spans="1:10">
+      <c r="A52" s="5"/>
+      <c r="B52" s="26"/>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="5"/>
+    <row r="53" spans="1:10">
+      <c r="A53" s="5"/>
     </row>
-    <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="73" t="s">
+    <row r="54" spans="1:10" ht="21">
+      <c r="A54" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="44"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="112"/>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="74" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="46"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="75" t="s">
+    <row r="56" spans="1:10">
+      <c r="A56" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="46"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="75"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="46"/>
+    <row r="57" spans="1:10">
+      <c r="A57" s="71"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="76" t="s">
+    <row r="58" spans="1:10">
+      <c r="A58" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="46"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="78" t="s">
+    <row r="59" spans="1:10">
+      <c r="A59" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="46"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="43"/>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="77" t="s">
+    <row r="60" spans="1:10">
+      <c r="A60" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="46"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="78" t="s">
+    <row r="61" spans="1:10">
+      <c r="A61" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="46"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="76"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="46"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="78"/>
       <c r="B61" s="42"/>
-      <c r="C61" s="46"/>
+      <c r="C61" s="43"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="77"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="42"/>
-      <c r="C62" s="46"/>
+      <c r="C62" s="43"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="78"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="42"/>
-      <c r="C63" s="46"/>
+      <c r="C63" s="43"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="76"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="42"/>
-      <c r="C64" s="46"/>
+      <c r="C64" s="43"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="78"/>
+      <c r="A65" s="74"/>
       <c r="B65" s="42"/>
-      <c r="C65" s="46"/>
+      <c r="C65" s="43"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="77"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="42"/>
-      <c r="C66" s="46"/>
+      <c r="C66" s="43"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="78"/>
+      <c r="A67" s="74"/>
       <c r="B67" s="42"/>
-      <c r="C67" s="46"/>
+      <c r="C67" s="43"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="76"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="42"/>
-      <c r="C68" s="46"/>
+      <c r="C68" s="43"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="78"/>
+      <c r="A69" s="74"/>
       <c r="B69" s="42"/>
-      <c r="C69" s="46"/>
+      <c r="C69" s="43"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="77"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="42"/>
-      <c r="C70" s="46"/>
+      <c r="C70" s="43"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="78"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="42"/>
-      <c r="C71" s="46"/>
+      <c r="C71" s="43"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="76"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="42"/>
-      <c r="C72" s="46"/>
+      <c r="C72" s="43"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="78"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="42"/>
-      <c r="C73" s="46"/>
+      <c r="C73" s="43"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="77"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="42"/>
-      <c r="C74" s="46"/>
+      <c r="C74" s="43"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="78"/>
+      <c r="A75" s="74"/>
       <c r="B75" s="42"/>
-      <c r="C75" s="46"/>
+      <c r="C75" s="43"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="76"/>
+      <c r="A76" s="73"/>
       <c r="B76" s="42"/>
-      <c r="C76" s="46"/>
+      <c r="C76" s="43"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="78"/>
+      <c r="A77" s="74"/>
       <c r="B77" s="42"/>
-      <c r="C77" s="46"/>
+      <c r="C77" s="43"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="77"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="42"/>
-      <c r="C78" s="46"/>
+      <c r="C78" s="43"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="78"/>
+      <c r="A79" s="74"/>
       <c r="B79" s="42"/>
-      <c r="C79" s="46"/>
+      <c r="C79" s="43"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="76"/>
+      <c r="A80" s="73"/>
       <c r="B80" s="42"/>
-      <c r="C80" s="46"/>
+      <c r="C80" s="43"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="78"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="42"/>
-      <c r="C81" s="46"/>
+      <c r="C81" s="43"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="77"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="42"/>
-      <c r="C82" s="46"/>
+      <c r="C82" s="43"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="78"/>
+      <c r="A83" s="74"/>
       <c r="B83" s="42"/>
-      <c r="C83" s="46"/>
+      <c r="C83" s="43"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="76"/>
+      <c r="A84" s="73"/>
       <c r="B84" s="42"/>
-      <c r="C84" s="46"/>
+      <c r="C84" s="43"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="78"/>
+      <c r="A85" s="74"/>
       <c r="B85" s="42"/>
-      <c r="C85" s="46"/>
+      <c r="C85" s="43"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="77"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="42"/>
-      <c r="C86" s="46"/>
+      <c r="C86" s="43"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="78"/>
+      <c r="A87" s="74"/>
       <c r="B87" s="42"/>
-      <c r="C87" s="46"/>
+      <c r="C87" s="43"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="76"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="42"/>
-      <c r="C88" s="46"/>
+      <c r="C88" s="43"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="78"/>
+      <c r="A89" s="74"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="43"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="77"/>
+      <c r="A90" s="72"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="43"/>
     </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1">
-      <c r="A91" s="78"/>
+    <row r="91" spans="1:3">
+      <c r="A91" s="74"/>
     </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1">
-      <c r="A92" s="76"/>
+    <row r="92" spans="1:3">
+      <c r="A92" s="73"/>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="78"/>
+    <row r="93" spans="1:3" ht="15" customHeight="1">
+      <c r="A93" s="74"/>
     </row>
-    <row r="94" spans="1:3" ht="16" customHeight="1">
-      <c r="A94" s="77"/>
+    <row r="94" spans="1:3" ht="15" customHeight="1">
+      <c r="A94" s="72"/>
     </row>
-    <row r="95" spans="1:3" ht="15" customHeight="1">
-      <c r="A95" s="78"/>
+    <row r="95" spans="1:3">
+      <c r="A95" s="74"/>
     </row>
-    <row r="96" spans="1:3" ht="15" customHeight="1">
-      <c r="A96" s="76"/>
+    <row r="96" spans="1:3" ht="16" customHeight="1">
+      <c r="A96" s="73"/>
     </row>
     <row r="97" spans="1:1" ht="15" customHeight="1">
-      <c r="A97" s="78"/>
+      <c r="A97" s="74"/>
     </row>
     <row r="98" spans="1:1" ht="15" customHeight="1">
-      <c r="A98" s="77"/>
+      <c r="A98" s="72"/>
     </row>
     <row r="99" spans="1:1" ht="15" customHeight="1">
-      <c r="A99" s="78"/>
+      <c r="A99" s="74"/>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="76"/>
+    <row r="100" spans="1:1" ht="15" customHeight="1">
+      <c r="A100" s="73"/>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="78"/>
+    <row r="101" spans="1:1" ht="15" customHeight="1">
+      <c r="A101" s="74"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="77"/>
+      <c r="A102" s="72"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="78"/>
+      <c r="A103" s="74"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="76"/>
+      <c r="A104" s="73"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="74"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A2:J2"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:G11"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A57" r:id="rId1" xr:uid="{2D44417F-1253-8C46-A861-31A8BAC0C977}"/>
-    <hyperlink ref="A59" r:id="rId2" display="https://storage.gra.cloud.ovh.net/v1/AUTH_325716a587c64897acbef9a4a4726e38/contracts/9eae50b-Contract_Professional_Services-FR-1.0.pdf " xr:uid="{30AE7B39-CB55-6143-880E-9274BFAE3726}"/>
+    <hyperlink ref="A59" r:id="rId1" xr:uid="{2D44417F-1253-8C46-A861-31A8BAC0C977}"/>
+    <hyperlink ref="A61" r:id="rId2" display="https://storage.gra.cloud.ovh.net/v1/AUTH_325716a587c64897acbef9a4a4726e38/contracts/9eae50b-Contract_Professional_Services-FR-1.0.pdf " xr:uid="{30AE7B39-CB55-6143-880E-9274BFAE3726}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14316,68 +14355,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
-      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
-      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A8208FA2715C64A841634F2D9D0061C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0142632bfc745cbd3590bc04c866e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f931156-b907-4802-85d4-da78b74d2c50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52bad56f1cedf5a7e96bfe3d7dae91ef" ns2:_="">
     <xsd:import namespace="3f931156-b907-4802-85d4-da78b74d2c50"/>
@@ -14550,6 +14527,68 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
+      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
+      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14560,24 +14599,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAB445C-65E8-4095-B725-2E676BF1AE69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14595,6 +14616,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
   <ds:schemaRefs>

--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6134F79-8681-854C-BE6C-8091F84F85D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8925A8A-05EC-D044-857D-EB9FDF9F408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="32640" windowHeight="20880" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quote" sheetId="58" r:id="rId1"/>
@@ -10640,6 +10640,7 @@
     <definedName name="Portails" hidden="1">{"' calendrier 2000'!$A$1:$Q$38"}</definedName>
     <definedName name="pp" hidden="1">{#N/A,#N/A,FALSE,"Calc";#N/A,#N/A,FALSE,"Sensitivity";#N/A,#N/A,FALSE,"LT Earn.Dil.";#N/A,#N/A,FALSE,"Dil. AVP"}</definedName>
     <definedName name="Pres" hidden="1">{#N/A,#N/A,TRUE,"Cover sheet";#N/A,#N/A,TRUE,"Summary";#N/A,#N/A,TRUE,"Key Assumptions";#N/A,#N/A,TRUE,"Profit &amp; Loss";#N/A,#N/A,TRUE,"Balance Sheet";#N/A,#N/A,TRUE,"Cashflow";#N/A,#N/A,TRUE,"IRR";#N/A,#N/A,TRUE,"Ratios";#N/A,#N/A,TRUE,"Debt analysis"}</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">quote!$A$1:$J$85</definedName>
     <definedName name="Print_CSC_Report_2" hidden="1">{"CSC_1",#N/A,FALSE,"CSC Outputs";"CSC_2",#N/A,FALSE,"CSC Outputs"}</definedName>
     <definedName name="Print_CSC_Report_3" hidden="1">{"CSC_1",#N/A,FALSE,"CSC Outputs";"CSC_2",#N/A,FALSE,"CSC Outputs"}</definedName>
     <definedName name="print4" hidden="1">{#N/A,#N/A,FALSE,"Operations";#N/A,#N/A,FALSE,"Financials"}</definedName>
@@ -11011,7 +11012,6 @@
     <definedName name="zer" hidden="1">{#N/A,#N/A,FALSE,"Calc";#N/A,#N/A,FALSE,"Sensitivity";#N/A,#N/A,FALSE,"LT Earn.Dil.";#N/A,#N/A,FALSE,"Dil. AVP"}</definedName>
     <definedName name="ZERTRET" hidden="1">#REF!</definedName>
     <definedName name="zezrzrzerz" hidden="1">{"equity comps",#N/A,FALSE,"CS Comps";"equity comps",#N/A,FALSE,"PS Comps";"equity comps",#N/A,FALSE,"GIC_Comps";"equity comps",#N/A,FALSE,"GIC2_Comps"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">quote!$A$1:$J$63</definedName>
     <definedName name="zz" hidden="1">{"MARCH",#N/A,FALSE,"CONSO OPEX 5899";"FullOpex",#N/A,FALSE,"CONSO OPEX 5899"}</definedName>
     <definedName name="ZZZ" hidden="1">{#N/A,#N/A,TRUE,"Total Market";#N/A,#N/A,TRUE,"Pricing Table";#N/A,#N/A,TRUE,"Residential Minutes";#N/A,#N/A,TRUE,"Small Bus Minutes";#N/A,#N/A,TRUE,"Medium Bus Minures";#N/A,#N/A,TRUE,"Corporate Min penetration";#N/A,#N/A,TRUE,"Line Penetration";#N/A,#N/A,TRUE,"Direct Line Penetration";#N/A,#N/A,TRUE,"Indirect Lines";#N/A,#N/A,TRUE,"Penetration% by Customer";#N/A,#N/A,TRUE,"Penetration% by Product";#N/A,#N/A,TRUE,"Minutes-Revenue by Product";#N/A,#N/A,TRUE,"Product Minute penetration";#N/A,#N/A,TRUE,"Customer Minutes Penetration"}</definedName>
     <definedName name="ZZZA" hidden="1">{"equity comps",#N/A,FALSE,"CS Comps";"equity comps",#N/A,FALSE,"PS Comps";"equity comps",#N/A,FALSE,"GIC_Comps";"equity comps",#N/A,FALSE,"GIC2_Comps";"debt comps",#N/A,FALSE,"CS Comps";"debt comps",#N/A,FALSE,"PS Comps";"debt comps",#N/A,FALSE,"GIC_Comps";"debt comps",#N/A,FALSE,"GIC2_Comps"}</definedName>
@@ -11034,7 +11034,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Référence devis </t>
   </si>
@@ -11165,28 +11165,6 @@
     <t>Paiement à réception de la facture</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Notre offre est valable </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>30 jours</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, sous réserve de disponibilité des produits/services. Les services sont régis exclusivement par les conditions contractuelles OVHcloud suivantes accessibles ici :</t>
-    </r>
-  </si>
-  <si>
     <t>Conditions Générales de Service en date du 6 mai 2022 :</t>
   </si>
   <si>
@@ -11207,19 +11185,34 @@
   <si>
     <t>OVHCloud - 2 rue Kellermann BP 80 157 59053 Roubaix Cedex 1 – France Société par Actions Simplifiée au capital de 10 174 560 € - RCS Lille Métropole 424 761 419 – Code APE 2620Z N°TVA FR22424761419</t>
   </si>
+  <si>
+    <t>Durée de validité :</t>
+  </si>
+  <si>
+    <t>30 jours</t>
+  </si>
+  <si>
+    <t>Ce devis est confidentiel et ne peut pas être transmis ou reproduit en tout ou partie, sans le consent préalable d'OVH.</t>
+  </si>
+  <si>
+    <t>L'application des conditions générales d'achat ou de toutes autres conditions du client est expressément exclue. Les services sont régis exclusivement par les conditions contractuelles OVHcloud suivantes accessibles ici :</t>
+  </si>
+  <si>
+    <t>Si, avant la fin de la Période d’engagement, le Client cesse d’utiliser tout ou partie des Services, le Client reste tenu de payer à OVHcloud le prix des Services en totalité pour toute la Période d’engagement."&amp;" Le solde restant dû est payable immédiatement. En contrepartie de son engagement, le Client se verra appliquer, pendant la Période d’engagement, la remise indiquée au devis sur les prix publics référencés ci-dessus. On entend par « prix publics » les prix publiés sur le Site Internet d’OVHcloud à la date de la Commande des Services. Les prix remisés ne sont pas cumulables avec les autres rabais, remises ou offres figurant sur le Site Internet d’OVHcloud. Les prix des Services soumis à Période d’engagement (remises inclues) sont fermes pour toute la Période d’engagement. Toutefois, les prix des Services seront susceptibles d’être révisés pendant la Période d’engagement en cas d’augmentation du coût de l’électricité et/ou de variation à la hausse du prix des Produits Tiers. En cas de prolongation de l’utilisation des Services par le Client au-delà de la Période d’engagement ou en cas de commande de nouveaux Services, il sera fait application des prix publics en vigueur tels que définis sur le Site Internet d’OVHcloud.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -11403,13 +11396,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -11951,7 +11937,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11965,57 +11951,51 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="22" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="24" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="24" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="27" fillId="24" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="57" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="57" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
@@ -12027,19 +12007,13 @@
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="24" borderId="14" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="34" fillId="24" borderId="14" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="27" fillId="24" borderId="13" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -12049,25 +12023,19 @@
     <xf numFmtId="0" fontId="26" fillId="27" borderId="19" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="19" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="57" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="24" borderId="20" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="24" borderId="20" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="24" borderId="20" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12082,22 +12050,22 @@
     <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="47" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="47" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" xfId="47" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="24" borderId="14" xfId="56" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="24" borderId="14" xfId="56" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="24" borderId="14" xfId="56" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="37" fillId="24" borderId="14" xfId="56" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="26" borderId="17" xfId="30" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="26" borderId="17" xfId="30" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="16" xfId="47" applyNumberFormat="1" applyBorder="1"/>
@@ -12116,22 +12084,22 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="24" borderId="16" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="24" borderId="16" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="24" borderId="16" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="24" borderId="14" xfId="56" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="24" borderId="14" xfId="56" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="24" borderId="17" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="24" borderId="17" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="24" borderId="14" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="38" fillId="24" borderId="14" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="24" borderId="12" xfId="56" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="24" borderId="12" xfId="56" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12141,14 +12109,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="24" borderId="20" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="24" borderId="19" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="24" borderId="19" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="47" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -12157,15 +12125,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="57" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="57"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="57"/>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="19" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -12196,29 +12158,17 @@
     <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="41" fillId="24" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="40" fillId="24" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="24" borderId="14" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="24" borderId="14" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="24" borderId="20" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="24" borderId="20" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
@@ -12244,22 +12194,76 @@
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="24" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="44" fillId="24" borderId="14" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="24" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="43" fillId="24" borderId="14" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="20" xfId="47" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="19" xfId="47" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="24" borderId="11" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12295,109 +12299,85 @@
     <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="%" xfId="48" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20 % - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="25" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="27" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="31" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Centrify gold" xfId="49" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Entrée" xfId="29" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="42" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="61" builtinId="4"/>
     <cellStyle name="Euro" xfId="30" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="Euro 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Euro 2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Insatisfaisant" xfId="31" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8"/>
+    <cellStyle name="Explanatory Text" xfId="35" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="33" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="37" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="38" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="39" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="40" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8"/>
+    <cellStyle name="Input" xfId="29" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Milliers 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Milliers 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Milliers 4" xfId="59" xr:uid="{14D347B5-402F-8D41-8897-7199A386B517}"/>
-    <cellStyle name="Monétaire" xfId="61" builtinId="4"/>
     <cellStyle name="Monétaire 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Neutre" xfId="32" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="32" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Normal 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
@@ -12405,20 +12385,14 @@
     <cellStyle name="Normal 2 3 2" xfId="58" xr:uid="{86FC485C-AE2B-AF43-ADC9-8C2E482CE86C}"/>
     <cellStyle name="Normal 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Note" xfId="28" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="34" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Pourcentage 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="Pourcentage 2 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="Pourcentage 3" xfId="55" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="Pourcentage 4" xfId="60" xr:uid="{22625C26-9810-C74D-A5AA-B84EE3F92A6B}"/>
-    <cellStyle name="Satisfaisant" xfId="33" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="34" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="35" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="36" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="37" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="38" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="39" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="40" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="36" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="42" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="25" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -12786,10 +12760,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -13374,259 +13348,262 @@
     <col min="16131" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="65"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="59"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
     </row>
-    <row r="2" spans="1:10" ht="20">
-      <c r="A2" s="143" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="145"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="66"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="5" spans="1:10" ht="14">
-      <c r="C5" s="67" t="s">
+    <row r="2" spans="1:13" ht="20">
+      <c r="A2" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="103"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="60"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="5" spans="1:13" ht="14">
+      <c r="C5" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="115">
+      <c r="F5" s="89"/>
+      <c r="G5" s="121">
         <f ca="1">NOW()</f>
-        <v>45196.822412499998</v>
+        <v>45321.732523842591</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="116"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
     </row>
-    <row r="6" spans="1:10" ht="55" customHeight="1">
-      <c r="B6" s="106" t="s">
-        <v>42</v>
+    <row r="6" spans="1:13" ht="55" customHeight="1">
+      <c r="B6" s="94" t="s">
+        <v>41</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="J6" s="103"/>
+      <c r="F6" s="87"/>
+      <c r="J6" s="91"/>
     </row>
-    <row r="7" spans="1:10" ht="14">
-      <c r="A7" s="75"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="68" t="s">
+    <row r="7" spans="1:13" ht="14">
+      <c r="A7" s="69"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="118"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="124"/>
     </row>
-    <row r="8" spans="1:10" ht="14">
-      <c r="C8" s="68">
+    <row r="8" spans="1:13" ht="14">
+      <c r="C8" s="62">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="14">
-      <c r="A9" s="119" t="s">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="14">
+      <c r="A9" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="69" t="s">
+      <c r="B9" s="126"/>
+      <c r="C9" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="120"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="126"/>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A10" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="89">
+      <c r="B10" s="56"/>
+      <c r="C10" s="81">
         <v>10</v>
       </c>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="89">
+      <c r="B11" s="32"/>
+      <c r="C11" s="81">
         <v>250</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="39"/>
-      <c r="J11" s="8"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="33"/>
+      <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="89">
+      <c r="B12" s="35"/>
+      <c r="C12" s="81">
         <v>0</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="15"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="89">
+      <c r="B13" s="14"/>
+      <c r="C13" s="81">
         <v>12</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
+      <c r="M13" s="62" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A15" s="138" t="s">
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A15" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="50" t="s">
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="18" t="str">
+      <c r="F15" s="16" t="str">
         <f>"Tarif unitaire "&amp;C5&amp;"HT/mois"</f>
         <v>Tarif unitaire €HT/mois</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="18" t="str">
+      <c r="J15" s="16" t="str">
         <f>"Prix "&amp;C5&amp;"HT/mois"</f>
         <v>Prix €HT/mois</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
-      <c r="A16" s="134" t="s">
+    <row r="16" spans="1:13" ht="18" customHeight="1">
+      <c r="A16" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="137"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
     </row>
     <row r="17" spans="1:11" ht="122" customHeight="1">
-      <c r="A17" s="141" t="s">
+      <c r="A17" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="33">
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="28">
         <v>10</v>
       </c>
-      <c r="F17" s="92">
+      <c r="F17" s="84">
         <v>3109</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="29">
         <v>1</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="82">
         <v>36</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="57">
         <v>0.15</v>
       </c>
-      <c r="J17" s="64">
+      <c r="J17" s="58">
         <f>F17*G17*(1-I17)</f>
         <v>2642.65</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="48"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="38"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -13637,192 +13614,192 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="2"/>
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="60">
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="54">
         <f>SUM(J17:J17)</f>
         <v>2642.65</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="D21" s="84" t="str">
+      <c r="A21" s="10"/>
+      <c r="D21" s="76" t="str">
         <f>"SUPPORT "&amp;C9&amp;"  ("&amp;C10&amp;"% Minimum " &amp; C11&amp;")"</f>
         <v>SUPPORT BUSINESS  (10% Minimum 250)</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="46">
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="40">
         <f>MAX(0.01*$C$10*J20,$C$11)</f>
         <v>264.26500000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="10"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="84" t="str">
+      <c r="D22" s="76" t="str">
         <f>IF(C12&gt;0,"REMISE Exceptionnelle (-"&amp;C12&amp;"%)","")</f>
         <v/>
       </c>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="91">
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="83">
         <f>(0-J20-J21)*($C$12/100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16" customHeight="1">
-      <c r="A23" s="11"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="84" t="str">
+      <c r="D23" s="76" t="str">
         <f>"MONTANT MENSUEL HT avec SUPPORT  en "&amp;C6</f>
         <v>MONTANT MENSUEL HT avec SUPPORT  en EURO</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="59">
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="53">
         <f>J20+J21+J22</f>
         <v>2906.915</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14" customHeight="1">
-      <c r="A24" s="11"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="84" t="str">
+      <c r="D24" s="76" t="str">
         <f>"TVA ("&amp;$C$8&amp;"%)"</f>
         <v>TVA (20%)</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="108">
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="96">
         <f>$C$8*J23/100</f>
         <v>581.38300000000004</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14" customHeight="1">
-      <c r="A25" s="11"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="20">
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="18">
         <f>SUM(E17:E18)</f>
         <v>10</v>
       </c>
-      <c r="K25" s="107"/>
+      <c r="K25" s="95"/>
     </row>
     <row r="26" spans="1:11" ht="14" customHeight="1">
-      <c r="A26" s="11"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="107"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="95"/>
     </row>
     <row r="27" spans="1:11" s="6" customFormat="1" ht="16" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="D27" s="84" t="str">
+      <c r="A27" s="10"/>
+      <c r="D27" s="76" t="str">
         <f>"MONTANT MENSUEL TTC avec SUPPORT  EN "&amp;C6</f>
         <v>MONTANT MENSUEL TTC avec SUPPORT  EN EURO</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="45">
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="39">
         <f>J23*(1+$C$8/100)</f>
         <v>3488.2979999999998</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="D28" s="84" t="str">
+      <c r="A28" s="10"/>
+      <c r="D28" s="76" t="str">
         <f>"Frais d'intallation TTC en "&amp;C6</f>
         <v>Frais d'intallation TTC en EURO</v>
       </c>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="57">
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="51">
         <f>J25*(1+$C$8/100)</f>
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="D29" s="84" t="str">
+      <c r="A29" s="10"/>
+      <c r="D29" s="76" t="str">
         <f>"BUDGET EN "&amp;C6&amp;" HT ("&amp;$C$13&amp;" Mois)"</f>
         <v>BUDGET EN EURO HT (12 Mois)</v>
       </c>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="45">
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="39">
         <f>J23*$C$13+J25</f>
         <v>34892.979999999996</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="6" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="D30" s="87" t="str">
+      <c r="A30" s="10"/>
+      <c r="D30" s="79" t="str">
         <f>"BUDGET EN "&amp;C6&amp;" TTC ("&amp;$C$13&amp;" Mois) - "&amp;$C$7&amp;" "&amp;$C$8&amp;"%"</f>
         <v>BUDGET EN EURO TTC (12 Mois) - TVA 20%</v>
       </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="58">
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="52">
         <f>J29*1.2</f>
         <v>41871.575999999994</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14">
-      <c r="A31" s="11"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:11" s="6" customFormat="1" ht="14">
-      <c r="A32" s="47"/>
+      <c r="A32" s="41"/>
       <c r="C32" s="1"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -13833,507 +13810,434 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="14">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="29"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="129"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="31"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
     </row>
-    <row r="35" spans="1:10" ht="15">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76" t="s">
+    <row r="35" spans="1:10" ht="14">
+      <c r="A35" s="134"/>
+      <c r="B35" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="79"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="71"/>
     </row>
-    <row r="36" spans="1:10" ht="15">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77" t="s">
+    <row r="36" spans="1:10" ht="14">
+      <c r="A36" s="136"/>
+      <c r="B36" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="79"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="71"/>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="96"/>
+    <row r="37" spans="1:10" ht="14">
+      <c r="A37" s="138"/>
+      <c r="B37" s="139" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="71"/>
     </row>
-    <row r="38" spans="1:10" ht="15">
-      <c r="A38" s="93"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="80" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" s="85"/>
+    </row>
+    <row r="39" spans="1:10" ht="21">
+      <c r="A39" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="65"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="66"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+    </row>
+    <row r="48" spans="1:10" ht="89" customHeight="1">
+      <c r="A48" s="141" t="str">
+        <f>IF(MAX(H17:H39)&gt;1,"Le Client s’engage à utiliser, à compter de leur mise à disposition par OVHcloud, l’intégralité des Services, objet du présent devis, pendant les "&amp;MAX(H17:H39)&amp;" mois d’engagement (la « Période d’engagement »). "&amp;$M$13,"")</f>
+        <v>Le Client s’engage à utiliser, à compter de leur mise à disposition par OVHcloud, l’intégralité des Services, objet du présent devis, pendant les 36 mois d’engagement (la « Période d’engagement »). Si, avant la fin de la Période d’engagement, le Client cesse d’utiliser tout ou partie des Services, le Client reste tenu de payer à OVHcloud le prix des Services en totalité pour toute la Période d’engagement."&amp;" Le solde restant dû est payable immédiatement. En contrepartie de son engagement, le Client se verra appliquer, pendant la Période d’engagement, la remise indiquée au devis sur les prix publics référencés ci-dessus. On entend par « prix publics » les prix publiés sur le Site Internet d’OVHcloud à la date de la Commande des Services. Les prix remisés ne sont pas cumulables avec les autres rabais, remises ou offres figurant sur le Site Internet d’OVHcloud. Les prix des Services soumis à Période d’engagement (remises inclues) sont fermes pour toute la Période d’engagement. Toutefois, les prix des Services seront susceptibles d’être révisés pendant la Période d’engagement en cas d’augmentation du coût de l’électricité et/ou de variation à la hausse du prix des Produits Tiers. En cas de prolongation de l’utilisation des Services par le Client au-delà de la Période d’engagement ou en cas de commande de nouveaux Services, il sera fait application des prix publics en vigueur tels que définis sur le Site Internet d’OVHcloud.</v>
+      </c>
+      <c r="B48" s="141"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="141"/>
+      <c r="I48" s="141"/>
+      <c r="J48" s="141"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+    </row>
+    <row r="50" spans="1:10" ht="15">
+      <c r="A50" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="85"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="77"/>
     </row>
-    <row r="39" spans="1:10" ht="14">
-      <c r="A39" s="37"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="11" t="s">
+    <row r="51" spans="1:10" ht="14">
+      <c r="A51" s="66"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="128"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="105"/>
     </row>
-    <row r="40" spans="1:10" ht="14">
-      <c r="A40" s="37"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="5"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="128"/>
+    <row r="52" spans="1:10" ht="14">
+      <c r="A52" s="68"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="105"/>
     </row>
-    <row r="41" spans="1:10" ht="14">
-      <c r="A41" s="35"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="11" t="s">
+    <row r="53" spans="1:10" ht="14">
+      <c r="A53" s="67"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="8"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="7"/>
     </row>
-    <row r="42" spans="1:10" ht="14">
-      <c r="A42" s="32"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="8"/>
+    <row r="54" spans="1:10" ht="14">
+      <c r="A54" s="68"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="14">
-      <c r="A43" s="37"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="14" t="s">
+    <row r="55" spans="1:10" ht="14">
+      <c r="A55" s="66"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="8"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="7"/>
     </row>
-    <row r="44" spans="1:10" ht="14">
-      <c r="A44" s="25"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="8"/>
+    <row r="56" spans="1:10" ht="14">
+      <c r="A56" s="68"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="14">
-      <c r="A45" s="93"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="11" t="s">
+    <row r="57" spans="1:10" ht="14">
+      <c r="A57" s="67"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="8"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="7"/>
     </row>
-    <row r="46" spans="1:10" ht="14">
-      <c r="A46" s="93"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="8"/>
+    <row r="58" spans="1:10" ht="14">
+      <c r="A58" s="68"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="14">
-      <c r="A47" s="93"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="8"/>
+    <row r="59" spans="1:10" ht="14">
+      <c r="A59" s="66"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="14">
-      <c r="A48" s="93"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="8"/>
+    <row r="60" spans="1:10" ht="14">
+      <c r="A60" s="68"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="7"/>
     </row>
-    <row r="49" spans="1:10" ht="14">
-      <c r="A49" s="93"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="8"/>
+    <row r="61" spans="1:10" ht="14">
+      <c r="A61"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="7"/>
     </row>
-    <row r="50" spans="1:10" ht="14">
-      <c r="A50" s="93"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
+    <row r="62" spans="1:10" ht="14">
+      <c r="A62" s="68"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="9"/>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="97"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="1" t="s">
+    <row r="63" spans="1:10">
+      <c r="A63" s="66"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="5"/>
-      <c r="B52" s="26"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="110"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="111"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="112"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="71"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="43"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="72"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="43"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="74"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="43"/>
-    </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="73"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="43"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="37"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="74"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="43"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="72"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="43"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="74"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="43"/>
+      <c r="A67" s="66"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="37"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="73"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="43"/>
+      <c r="A68" s="68"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="74"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="43"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="37"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="72"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="43"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="74"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="43"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="37"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="73"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="43"/>
+      <c r="A72" s="68"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="74"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="43"/>
+      <c r="A73" s="67"/>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="72"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="43"/>
+    <row r="74" spans="1:3" ht="15" customHeight="1">
+      <c r="A74" s="68"/>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="74"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="43"/>
+    <row r="75" spans="1:3" ht="15" customHeight="1">
+      <c r="A75" s="66"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="73"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="43"/>
+      <c r="A76" s="68"/>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="74"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="43"/>
+    <row r="77" spans="1:3" ht="16" customHeight="1">
+      <c r="A77" s="67"/>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="72"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="43"/>
+    <row r="78" spans="1:3" ht="15" customHeight="1">
+      <c r="A78" s="68"/>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="74"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="43"/>
+    <row r="79" spans="1:3" ht="15" customHeight="1">
+      <c r="A79" s="66"/>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="73"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="43"/>
+    <row r="80" spans="1:3" ht="15" customHeight="1">
+      <c r="A80" s="68"/>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="74"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="43"/>
+    <row r="81" spans="1:1" ht="15" customHeight="1">
+      <c r="A81" s="67"/>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="72"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="43"/>
+    <row r="82" spans="1:1" ht="15" customHeight="1">
+      <c r="A82" s="68"/>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="74"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="43"/>
+    <row r="83" spans="1:1">
+      <c r="A83" s="66"/>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="73"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="43"/>
+    <row r="84" spans="1:1">
+      <c r="A84" s="68"/>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="74"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="43"/>
+    <row r="85" spans="1:1">
+      <c r="A85" s="67"/>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="72"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="43"/>
+    <row r="86" spans="1:1">
+      <c r="A86" s="68"/>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="74"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="43"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="73"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="43"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="74"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="43"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="72"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="43"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="74"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="73"/>
-    </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1">
-      <c r="A93" s="74"/>
-    </row>
-    <row r="94" spans="1:3" ht="15" customHeight="1">
-      <c r="A94" s="72"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="74"/>
-    </row>
-    <row r="96" spans="1:3" ht="16" customHeight="1">
-      <c r="A96" s="73"/>
-    </row>
-    <row r="97" spans="1:1" ht="15" customHeight="1">
-      <c r="A97" s="74"/>
-    </row>
-    <row r="98" spans="1:1" ht="15" customHeight="1">
-      <c r="A98" s="72"/>
-    </row>
-    <row r="99" spans="1:1" ht="15" customHeight="1">
-      <c r="A99" s="74"/>
-    </row>
-    <row r="100" spans="1:1" ht="15" customHeight="1">
-      <c r="A100" s="73"/>
-    </row>
-    <row r="101" spans="1:1" ht="15" customHeight="1">
-      <c r="A101" s="74"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="72"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="74"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="73"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="74"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="72"/>
+    <row r="87" spans="1:1">
+      <c r="A87" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="G39:J39"/>
+  <mergeCells count="15">
     <mergeCell ref="D13:J13"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A48:J48"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G7:J7"/>
@@ -14341,11 +14245,17 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:G11"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
-  <phoneticPr fontId="42" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A59" r:id="rId1" xr:uid="{2D44417F-1253-8C46-A861-31A8BAC0C977}"/>
-    <hyperlink ref="A61" r:id="rId2" display="https://storage.gra.cloud.ovh.net/v1/AUTH_325716a587c64897acbef9a4a4726e38/contracts/9eae50b-Contract_Professional_Services-FR-1.0.pdf " xr:uid="{30AE7B39-CB55-6143-880E-9274BFAE3726}"/>
+    <hyperlink ref="A46" r:id="rId1" display="https://storage.gra.cloud.ovh.net/v1/AUTH_325716a587c64897acbef9a4a4726e38/contracts/9eae50b-Contract_Professional_Services-FR-1.0.pdf " xr:uid="{30AE7B39-CB55-6143-880E-9274BFAE3726}"/>
+    <hyperlink ref="A44" r:id="rId2" xr:uid="{2D44417F-1253-8C46-A861-31A8BAC0C977}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14355,6 +14265,68 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
+      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
+      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A8208FA2715C64A841634F2D9D0061C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0142632bfc745cbd3590bc04c866e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f931156-b907-4802-85d4-da78b74d2c50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52bad56f1cedf5a7e96bfe3d7dae91ef" ns2:_="">
     <xsd:import namespace="3f931156-b907-4802-85d4-da78b74d2c50"/>
@@ -14527,68 +14499,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
-      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
-      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14599,6 +14509,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAB445C-65E8-4095-B725-2E676BF1AE69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14616,24 +14544,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
   <ds:schemaRefs>

--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8925A8A-05EC-D044-857D-EB9FDF9F408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B67EA-811B-D247-BD21-2C3C7FC6A013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="32640" windowHeight="20880" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quote" sheetId="58" r:id="rId1"/>
@@ -12215,6 +12215,27 @@
     <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12226,15 +12247,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -12263,7 +12275,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="24" borderId="11" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12299,35 +12323,11 @@
     <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -12762,8 +12762,8 @@
   </sheetPr>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:J48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -13394,13 +13394,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="89"/>
-      <c r="G5" s="121">
+      <c r="G5" s="129">
         <f ca="1">NOW()</f>
-        <v>45321.732523842591</v>
+        <v>45334.444553703703</v>
       </c>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="122"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="130"/>
     </row>
     <row r="6" spans="1:13" ht="55" customHeight="1">
       <c r="B6" s="94" t="s">
@@ -13425,10 +13425,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="93"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:13" ht="14">
       <c r="C8" s="62">
@@ -13436,22 +13436,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="14">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="126"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="126"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="134"/>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="55" t="s">
@@ -13461,15 +13461,15 @@
       <c r="C10" s="81">
         <v>10</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="130"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="138"/>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
@@ -13479,10 +13479,10 @@
       <c r="C11" s="81">
         <v>250</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="33"/>
       <c r="J11" s="7"/>
     </row>
@@ -13494,9 +13494,9 @@
       <c r="C12" s="81">
         <v>0</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -13510,24 +13510,24 @@
       <c r="C13" s="81">
         <v>12</v>
       </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="126"/>
       <c r="M13" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="44" t="s">
         <v>10</v>
       </c>
@@ -13550,26 +13550,26 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="114"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
     </row>
     <row r="17" spans="1:11" ht="122" customHeight="1">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
       <c r="E17" s="28">
         <v>10</v>
       </c>
@@ -13824,8 +13824,8 @@
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="106"/>
-      <c r="B34" s="107"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -13836,8 +13836,8 @@
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="14">
-      <c r="A35" s="134"/>
-      <c r="B35" s="135" t="s">
+      <c r="A35" s="104"/>
+      <c r="B35" s="105" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="70" t="s">
@@ -13852,8 +13852,8 @@
       <c r="J35" s="71"/>
     </row>
     <row r="36" spans="1:10" ht="14">
-      <c r="A36" s="136"/>
-      <c r="B36" s="137" t="s">
+      <c r="A36" s="106"/>
+      <c r="B36" s="107" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="70" t="s">
@@ -13868,8 +13868,8 @@
       <c r="J36" s="71"/>
     </row>
     <row r="37" spans="1:10" ht="14">
-      <c r="A37" s="138"/>
-      <c r="B37" s="139" t="s">
+      <c r="A37" s="108"/>
+      <c r="B37" s="109" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="70" t="s">
@@ -13972,7 +13972,7 @@
       <c r="C49" s="37"/>
     </row>
     <row r="50" spans="1:10" ht="15">
-      <c r="A50" s="140" t="s">
+      <c r="A50" s="110" t="s">
         <v>19</v>
       </c>
       <c r="B50" s="36"/>
@@ -13996,10 +13996,10 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="105"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="112"/>
     </row>
     <row r="52" spans="1:10" ht="14">
       <c r="A52" s="68"/>
@@ -14007,10 +14007,10 @@
       <c r="C52" s="37"/>
       <c r="D52" s="5"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="105"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="112"/>
     </row>
     <row r="53" spans="1:10" ht="14">
       <c r="A53" s="67"/>
@@ -14235,9 +14235,8 @@
       <c r="A87" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="D13:J13"/>
-    <mergeCell ref="A48:J48"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G7:J7"/>
@@ -14265,6 +14264,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -14314,7 +14322,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
@@ -14326,7 +14334,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A8208FA2715C64A841634F2D9D0061C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0142632bfc745cbd3590bc04c866e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f931156-b907-4802-85d4-da78b74d2c50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52bad56f1cedf5a7e96bfe3d7dae91ef" ns2:_="">
     <xsd:import namespace="3f931156-b907-4802-85d4-da78b74d2c50"/>
@@ -14499,16 +14507,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -14516,7 +14523,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -14526,7 +14533,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAB445C-65E8-4095-B725-2E676BF1AE69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14542,12 +14549,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B67EA-811B-D247-BD21-2C3C7FC6A013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F088DDA9-072C-4E42-A3E1-70AA0393820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29840" windowHeight="20320" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quote" sheetId="58" r:id="rId1"/>
@@ -11198,7 +11198,7 @@
     <t>L'application des conditions générales d'achat ou de toutes autres conditions du client est expressément exclue. Les services sont régis exclusivement par les conditions contractuelles OVHcloud suivantes accessibles ici :</t>
   </si>
   <si>
-    <t>Si, avant la fin de la Période d’engagement, le Client cesse d’utiliser tout ou partie des Services, le Client reste tenu de payer à OVHcloud le prix des Services en totalité pour toute la Période d’engagement."&amp;" Le solde restant dû est payable immédiatement. En contrepartie de son engagement, le Client se verra appliquer, pendant la Période d’engagement, la remise indiquée au devis sur les prix publics référencés ci-dessus. On entend par « prix publics » les prix publiés sur le Site Internet d’OVHcloud à la date de la Commande des Services. Les prix remisés ne sont pas cumulables avec les autres rabais, remises ou offres figurant sur le Site Internet d’OVHcloud. Les prix des Services soumis à Période d’engagement (remises inclues) sont fermes pour toute la Période d’engagement. Toutefois, les prix des Services seront susceptibles d’être révisés pendant la Période d’engagement en cas d’augmentation du coût de l’électricité et/ou de variation à la hausse du prix des Produits Tiers. En cas de prolongation de l’utilisation des Services par le Client au-delà de la Période d’engagement ou en cas de commande de nouveaux Services, il sera fait application des prix publics en vigueur tels que définis sur le Site Internet d’OVHcloud.</t>
+    <t>Si, avant la fin de la Période d’engagement, le Client cesse d’utiliser tout ou partie des Services, le Client reste tenu de payer à OVHcloud le prix des Services en totalité pour toute la Période d’engagement. Le solde restant dû est payable immédiatement. En contrepartie de son engagement, le Client se verra appliquer, pendant la Période d’engagement, la remise indiquée au devis sur les prix publics référencés ci-dessus. On entend par « prix publics » les prix publiés sur le Site Internet d’OVHcloud à la date de la Commande des Services. Les prix remisés ne sont pas cumulables avec les autres rabais, remises ou offres figurant sur le Site Internet d’OVHcloud. Les prix des Services soumis à Période d’engagement (remises inclues) sont fermes pour toute la Période d’engagement. Toutefois, les prix des Services seront susceptibles d’être révisés pendant la Période d’engagement en cas d’augmentation du coût de l’électricité et/ou de variation à la hausse du prix des Produits Tiers. En cas de prolongation de l’utilisation des Services par le Client au-delà de la Période d’engagement ou en cas de commande de nouveaux Services, il sera fait application des prix publics en vigueur tels que définis sur le Site Internet d’OVHcloud.</t>
   </si>
 </sst>
 </file>
@@ -12159,9 +12159,6 @@
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="40" fillId="24" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="27" fillId="24" borderId="14" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -12235,6 +12232,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12326,8 +12326,8 @@
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="24" borderId="20" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -12762,8 +12762,8 @@
   </sheetPr>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -13361,18 +13361,18 @@
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="20">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="60"/>
@@ -13390,41 +13390,41 @@
       <c r="C5" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="89"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="129">
         <f ca="1">NOW()</f>
-        <v>45334.444553703703</v>
+        <v>45335.453426041669</v>
       </c>
       <c r="H5" s="129"/>
       <c r="I5" s="129"/>
       <c r="J5" s="130"/>
     </row>
     <row r="6" spans="1:13" ht="55" customHeight="1">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="J6" s="91"/>
+      <c r="F6" s="86"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:13" ht="14">
       <c r="A7" s="69"/>
-      <c r="B7" s="86"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="93"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="131"/>
       <c r="H7" s="131"/>
       <c r="I7" s="131"/>
@@ -13573,13 +13573,13 @@
       <c r="E17" s="28">
         <v>10</v>
       </c>
-      <c r="F17" s="84">
+      <c r="F17" s="83">
         <v>3109</v>
       </c>
       <c r="G17" s="29">
         <v>1</v>
       </c>
-      <c r="H17" s="82">
+      <c r="H17" s="141">
         <v>36</v>
       </c>
       <c r="I17" s="57">
@@ -13657,7 +13657,7 @@
       <c r="G22" s="78"/>
       <c r="H22" s="78"/>
       <c r="I22" s="78"/>
-      <c r="J22" s="83">
+      <c r="J22" s="82">
         <f>(0-J20-J21)*($C$12/100)</f>
         <v>0</v>
       </c>
@@ -13693,7 +13693,7 @@
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
       <c r="I24" s="78"/>
-      <c r="J24" s="96">
+      <c r="J24" s="95">
         <f>$C$8*J23/100</f>
         <v>581.38300000000004</v>
       </c>
@@ -13714,7 +13714,7 @@
         <f>SUM(E17:E18)</f>
         <v>10</v>
       </c>
-      <c r="K25" s="95"/>
+      <c r="K25" s="94"/>
     </row>
     <row r="26" spans="1:11" ht="14" customHeight="1">
       <c r="A26" s="10"/>
@@ -13727,7 +13727,7 @@
       <c r="H26" s="78"/>
       <c r="I26" s="78"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="95"/>
+      <c r="K26" s="94"/>
     </row>
     <row r="27" spans="1:11" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A27" s="10"/>
@@ -13836,8 +13836,8 @@
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="14">
-      <c r="A35" s="104"/>
-      <c r="B35" s="105" t="s">
+      <c r="A35" s="103"/>
+      <c r="B35" s="104" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="70" t="s">
@@ -13852,8 +13852,8 @@
       <c r="J35" s="71"/>
     </row>
     <row r="36" spans="1:10" ht="14">
-      <c r="A36" s="106"/>
-      <c r="B36" s="107" t="s">
+      <c r="A36" s="105"/>
+      <c r="B36" s="106" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="70" t="s">
@@ -13868,8 +13868,8 @@
       <c r="J36" s="71"/>
     </row>
     <row r="37" spans="1:10" ht="14">
-      <c r="A37" s="108"/>
-      <c r="B37" s="109" t="s">
+      <c r="A37" s="107"/>
+      <c r="B37" s="108" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="70" t="s">
@@ -13884,21 +13884,21 @@
       <c r="J37" s="71"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="85"/>
+      <c r="A38" s="84"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="99"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="64" t="s">
@@ -13953,26 +13953,26 @@
       <c r="C47" s="37"/>
     </row>
     <row r="48" spans="1:10" ht="89" customHeight="1">
-      <c r="A48" s="141" t="str">
+      <c r="A48" s="110" t="str">
         <f>IF(MAX(H17:H39)&gt;1,"Le Client s’engage à utiliser, à compter de leur mise à disposition par OVHcloud, l’intégralité des Services, objet du présent devis, pendant les "&amp;MAX(H17:H39)&amp;" mois d’engagement (la « Période d’engagement »). "&amp;$M$13,"")</f>
-        <v>Le Client s’engage à utiliser, à compter de leur mise à disposition par OVHcloud, l’intégralité des Services, objet du présent devis, pendant les 36 mois d’engagement (la « Période d’engagement »). Si, avant la fin de la Période d’engagement, le Client cesse d’utiliser tout ou partie des Services, le Client reste tenu de payer à OVHcloud le prix des Services en totalité pour toute la Période d’engagement."&amp;" Le solde restant dû est payable immédiatement. En contrepartie de son engagement, le Client se verra appliquer, pendant la Période d’engagement, la remise indiquée au devis sur les prix publics référencés ci-dessus. On entend par « prix publics » les prix publiés sur le Site Internet d’OVHcloud à la date de la Commande des Services. Les prix remisés ne sont pas cumulables avec les autres rabais, remises ou offres figurant sur le Site Internet d’OVHcloud. Les prix des Services soumis à Période d’engagement (remises inclues) sont fermes pour toute la Période d’engagement. Toutefois, les prix des Services seront susceptibles d’être révisés pendant la Période d’engagement en cas d’augmentation du coût de l’électricité et/ou de variation à la hausse du prix des Produits Tiers. En cas de prolongation de l’utilisation des Services par le Client au-delà de la Période d’engagement ou en cas de commande de nouveaux Services, il sera fait application des prix publics en vigueur tels que définis sur le Site Internet d’OVHcloud.</v>
+        <v>Le Client s’engage à utiliser, à compter de leur mise à disposition par OVHcloud, l’intégralité des Services, objet du présent devis, pendant les 36 mois d’engagement (la « Période d’engagement »). Si, avant la fin de la Période d’engagement, le Client cesse d’utiliser tout ou partie des Services, le Client reste tenu de payer à OVHcloud le prix des Services en totalité pour toute la Période d’engagement. Le solde restant dû est payable immédiatement. En contrepartie de son engagement, le Client se verra appliquer, pendant la Période d’engagement, la remise indiquée au devis sur les prix publics référencés ci-dessus. On entend par « prix publics » les prix publiés sur le Site Internet d’OVHcloud à la date de la Commande des Services. Les prix remisés ne sont pas cumulables avec les autres rabais, remises ou offres figurant sur le Site Internet d’OVHcloud. Les prix des Services soumis à Période d’engagement (remises inclues) sont fermes pour toute la Période d’engagement. Toutefois, les prix des Services seront susceptibles d’être révisés pendant la Période d’engagement en cas d’augmentation du coût de l’électricité et/ou de variation à la hausse du prix des Produits Tiers. En cas de prolongation de l’utilisation des Services par le Client au-delà de la Période d’engagement ou en cas de commande de nouveaux Services, il sera fait application des prix publics en vigueur tels que définis sur le Site Internet d’OVHcloud.</v>
       </c>
-      <c r="B48" s="141"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="141"/>
-      <c r="I48" s="141"/>
-      <c r="J48" s="141"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
     </row>
     <row r="49" spans="1:10">
       <c r="B49" s="36"/>
       <c r="C49" s="37"/>
     </row>
     <row r="50" spans="1:10" ht="15">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="109" t="s">
         <v>19</v>
       </c>
       <c r="B50" s="36"/>

--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F088DDA9-072C-4E42-A3E1-70AA0393820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42225474-37AE-D346-A40A-E79524642685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29840" windowHeight="20320" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quote" sheetId="58" r:id="rId1"/>
@@ -11198,7 +11198,7 @@
     <t>L'application des conditions générales d'achat ou de toutes autres conditions du client est expressément exclue. Les services sont régis exclusivement par les conditions contractuelles OVHcloud suivantes accessibles ici :</t>
   </si>
   <si>
-    <t>Si, avant la fin de la Période d’engagement, le Client cesse d’utiliser tout ou partie des Services, le Client reste tenu de payer à OVHcloud le prix des Services en totalité pour toute la Période d’engagement. Le solde restant dû est payable immédiatement. En contrepartie de son engagement, le Client se verra appliquer, pendant la Période d’engagement, la remise indiquée au devis sur les prix publics référencés ci-dessus. On entend par « prix publics » les prix publiés sur le Site Internet d’OVHcloud à la date de la Commande des Services. Les prix remisés ne sont pas cumulables avec les autres rabais, remises ou offres figurant sur le Site Internet d’OVHcloud. Les prix des Services soumis à Période d’engagement (remises inclues) sont fermes pour toute la Période d’engagement. Toutefois, les prix des Services seront susceptibles d’être révisés pendant la Période d’engagement en cas d’augmentation du coût de l’électricité et/ou de variation à la hausse du prix des Produits Tiers. En cas de prolongation de l’utilisation des Services par le Client au-delà de la Période d’engagement ou en cas de commande de nouveaux Services, il sera fait application des prix publics en vigueur tels que définis sur le Site Internet d’OVHcloud.</t>
+    <t>Le Client s’engage à utiliser, à compter de leur mise à disposition par OVHcloud, l’intégralité des Services, objet du présent devis, pendant les COMMIT mois d’engagement (la « Période d’engagement »). Si, avant la fin de la Période d’engagement, le Client cesse d’utiliser tout ou partie des Services, le Client reste tenu de payer à OVHcloud le prix des Services en totalité pour toute la Période d’engagement. Le solde restant dû est payable immédiatement. En contrepartie de son engagement, le Client se verra appliquer, pendant la Période d’engagement, la remise indiquée au devis sur les prix publics référencés ci-dessus. On entend par « prix publics » les prix publiés sur le Site Internet d’OVHcloud à la date de la Commande des Services. Les prix remisés ne sont pas cumulables avec les autres rabais, remises ou offres figurant sur le Site Internet d’OVHcloud. Les prix des Services soumis à Période d’engagement (remises inclues) sont fermes pour toute la Période d’engagement. Toutefois, les prix des Services seront susceptibles d’être révisés pendant la Période d’engagement en cas d’augmentation du coût de l’électricité et/ou de variation à la hausse du prix des Produits Tiers. En cas de prolongation de l’utilisation des Services par le Client au-delà de la Période d’engagement ou en cas de commande de nouveaux Services, il sera fait application des prix publics en vigueur tels que définis sur le Site Internet d’OVHcloud.</t>
   </si>
 </sst>
 </file>
@@ -12236,44 +12236,8 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="24" borderId="20" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -12326,8 +12290,44 @@
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="24" borderId="20" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -12762,8 +12762,8 @@
   </sheetPr>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -13394,13 +13394,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="88"/>
-      <c r="G5" s="129">
+      <c r="G5" s="117">
         <f ca="1">NOW()</f>
-        <v>45335.453426041669</v>
+        <v>45392.436313773149</v>
       </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:13" ht="55" customHeight="1">
       <c r="B6" s="93" t="s">
@@ -13425,10 +13425,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="92"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="1:13" ht="14">
       <c r="C8" s="62">
@@ -13436,22 +13436,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="14">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="134"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="134"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="122"/>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="55" t="s">
@@ -13461,15 +13461,15 @@
       <c r="C10" s="81">
         <v>10</v>
       </c>
-      <c r="D10" s="136" t="s">
+      <c r="D10" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="138"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
@@ -13479,10 +13479,10 @@
       <c r="C11" s="81">
         <v>250</v>
       </c>
-      <c r="D11" s="139"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
       <c r="H11" s="33"/>
       <c r="J11" s="7"/>
     </row>
@@ -13494,9 +13494,9 @@
       <c r="C12" s="81">
         <v>0</v>
       </c>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -13510,24 +13510,24 @@
       <c r="C13" s="81">
         <v>12</v>
       </c>
-      <c r="D13" s="124"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
       <c r="M13" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="44" t="s">
         <v>10</v>
       </c>
@@ -13550,26 +13550,26 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="136"/>
     </row>
     <row r="17" spans="1:11" ht="122" customHeight="1">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="28">
         <v>10</v>
       </c>
@@ -13579,7 +13579,7 @@
       <c r="G17" s="29">
         <v>1</v>
       </c>
-      <c r="H17" s="141">
+      <c r="H17" s="111">
         <v>36</v>
       </c>
       <c r="I17" s="57">
@@ -13824,8 +13824,8 @@
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
+      <c r="A34" s="131"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -13952,11 +13952,8 @@
       <c r="B47" s="36"/>
       <c r="C47" s="37"/>
     </row>
-    <row r="48" spans="1:10" ht="89" customHeight="1">
-      <c r="A48" s="110" t="str">
-        <f>IF(MAX(H17:H39)&gt;1,"Le Client s’engage à utiliser, à compter de leur mise à disposition par OVHcloud, l’intégralité des Services, objet du présent devis, pendant les "&amp;MAX(H17:H39)&amp;" mois d’engagement (la « Période d’engagement »). "&amp;$M$13,"")</f>
-        <v>Le Client s’engage à utiliser, à compter de leur mise à disposition par OVHcloud, l’intégralité des Services, objet du présent devis, pendant les 36 mois d’engagement (la « Période d’engagement »). Si, avant la fin de la Période d’engagement, le Client cesse d’utiliser tout ou partie des Services, le Client reste tenu de payer à OVHcloud le prix des Services en totalité pour toute la Période d’engagement. Le solde restant dû est payable immédiatement. En contrepartie de son engagement, le Client se verra appliquer, pendant la Période d’engagement, la remise indiquée au devis sur les prix publics référencés ci-dessus. On entend par « prix publics » les prix publiés sur le Site Internet d’OVHcloud à la date de la Commande des Services. Les prix remisés ne sont pas cumulables avec les autres rabais, remises ou offres figurant sur le Site Internet d’OVHcloud. Les prix des Services soumis à Période d’engagement (remises inclues) sont fermes pour toute la Période d’engagement. Toutefois, les prix des Services seront susceptibles d’être révisés pendant la Période d’engagement en cas d’augmentation du coût de l’électricité et/ou de variation à la hausse du prix des Produits Tiers. En cas de prolongation de l’utilisation des Services par le Client au-delà de la Période d’engagement ou en cas de commande de nouveaux Services, il sera fait application des prix publics en vigueur tels que définis sur le Site Internet d’OVHcloud.</v>
-      </c>
+    <row r="48" spans="1:10">
+      <c r="A48" s="110"/>
       <c r="B48" s="110"/>
       <c r="C48" s="110"/>
       <c r="D48" s="110"/>
@@ -13996,10 +13993,10 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="112"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="130"/>
     </row>
     <row r="52" spans="1:10" ht="14">
       <c r="A52" s="68"/>
@@ -14007,10 +14004,10 @@
       <c r="C52" s="37"/>
       <c r="D52" s="5"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="112"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="130"/>
     </row>
     <row r="53" spans="1:10" ht="14">
       <c r="A53" s="67"/>
@@ -14236,6 +14233,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G5:J5"/>
@@ -14244,12 +14247,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:G11"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <hyperlinks>
@@ -14273,68 +14270,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
-      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
-      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A8208FA2715C64A841634F2D9D0061C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0142632bfc745cbd3590bc04c866e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f931156-b907-4802-85d4-da78b74d2c50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52bad56f1cedf5a7e96bfe3d7dae91ef" ns2:_="">
     <xsd:import namespace="3f931156-b907-4802-85d4-da78b74d2c50"/>
@@ -14507,6 +14442,68 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
+      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
+      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
   <ds:schemaRefs>
@@ -14516,9 +14513,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAB445C-65E8-4095-B725-2E676BF1AE69}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14534,19 +14541,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAB445C-65E8-4095-B725-2E676BF1AE69}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42225474-37AE-D346-A40A-E79524642685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C136528-40FF-1C41-B9E7-7422C499F2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11105,9 +11105,6 @@
     <t>MONTANT MENSUEL</t>
   </si>
   <si>
-    <t>Frais d'intallation HT</t>
-  </si>
-  <si>
     <t>Zone de Confiance - France - RBX</t>
   </si>
   <si>
@@ -11199,6 +11196,9 @@
   </si>
   <si>
     <t>Le Client s’engage à utiliser, à compter de leur mise à disposition par OVHcloud, l’intégralité des Services, objet du présent devis, pendant les COMMIT mois d’engagement (la « Période d’engagement »). Si, avant la fin de la Période d’engagement, le Client cesse d’utiliser tout ou partie des Services, le Client reste tenu de payer à OVHcloud le prix des Services en totalité pour toute la Période d’engagement. Le solde restant dû est payable immédiatement. En contrepartie de son engagement, le Client se verra appliquer, pendant la Période d’engagement, la remise indiquée au devis sur les prix publics référencés ci-dessus. On entend par « prix publics » les prix publiés sur le Site Internet d’OVHcloud à la date de la Commande des Services. Les prix remisés ne sont pas cumulables avec les autres rabais, remises ou offres figurant sur le Site Internet d’OVHcloud. Les prix des Services soumis à Période d’engagement (remises inclues) sont fermes pour toute la Période d’engagement. Toutefois, les prix des Services seront susceptibles d’être révisés pendant la Période d’engagement en cas d’augmentation du coût de l’électricité et/ou de variation à la hausse du prix des Produits Tiers. En cas de prolongation de l’utilisation des Services par le Client au-delà de la Période d’engagement ou en cas de commande de nouveaux Services, il sera fait application des prix publics en vigueur tels que définis sur le Site Internet d’OVHcloud.</t>
+  </si>
+  <si>
+    <t>Frais d'installation HT</t>
   </si>
 </sst>
 </file>
@@ -12239,6 +12239,45 @@
     <xf numFmtId="1" fontId="3" fillId="24" borderId="20" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12289,45 +12328,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -12762,8 +12762,8 @@
   </sheetPr>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -13362,7 +13362,7 @@
     </row>
     <row r="2" spans="1:13" ht="20">
       <c r="A2" s="100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
@@ -13388,26 +13388,26 @@
     </row>
     <row r="5" spans="1:13" ht="14">
       <c r="C5" s="61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="87" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="88"/>
-      <c r="G5" s="117">
+      <c r="G5" s="130">
         <f ca="1">NOW()</f>
-        <v>45392.436313773149</v>
+        <v>45468.523622916669</v>
       </c>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
     </row>
     <row r="6" spans="1:13" ht="55" customHeight="1">
       <c r="B6" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="89" t="s">
         <v>0</v>
@@ -13419,16 +13419,16 @@
       <c r="A7" s="69"/>
       <c r="B7" s="85"/>
       <c r="C7" s="62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="91" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="92"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="133"/>
     </row>
     <row r="8" spans="1:13" ht="14">
       <c r="C8" s="62">
@@ -13436,22 +13436,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="14">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="122"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="122"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="55" t="s">
@@ -13461,15 +13461,15 @@
       <c r="C10" s="81">
         <v>10</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="126"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="139"/>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
@@ -13479,10 +13479,10 @@
       <c r="C11" s="81">
         <v>250</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="33"/>
       <c r="J11" s="7"/>
     </row>
@@ -13494,9 +13494,9 @@
       <c r="C12" s="81">
         <v>0</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -13510,24 +13510,24 @@
       <c r="C13" s="81">
         <v>12</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="127"/>
       <c r="M13" s="62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="44" t="s">
         <v>10</v>
       </c>
@@ -13536,13 +13536,13 @@
         <v>Tarif unitaire €HT/mois</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="16" t="str">
         <f>"Prix "&amp;C5&amp;"HT/mois"</f>
@@ -13550,26 +13550,26 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="A16" s="133" t="s">
-        <v>24</v>
+      <c r="A16" s="116" t="s">
+        <v>23</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="136"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="119"/>
     </row>
     <row r="17" spans="1:11" ht="122" customHeight="1">
-      <c r="A17" s="140" t="s">
-        <v>29</v>
+      <c r="A17" s="123" t="s">
+        <v>28</v>
       </c>
-      <c r="B17" s="141"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
       <c r="E17" s="28">
         <v>10</v>
       </c>
@@ -13703,7 +13703,7 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="76" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
@@ -13748,8 +13748,8 @@
     <row r="28" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A28" s="10"/>
       <c r="D28" s="76" t="str">
-        <f>"Frais d'intallation TTC en "&amp;C6</f>
-        <v>Frais d'intallation TTC en EURO</v>
+        <f>"Frais d'installation TTC en "&amp;C6</f>
+        <v>Frais d'installation TTC en EURO</v>
       </c>
       <c r="E28" s="78"/>
       <c r="F28" s="78"/>
@@ -13811,7 +13811,7 @@
     </row>
     <row r="33" spans="1:10" ht="14">
       <c r="A33" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -13824,8 +13824,8 @@
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="131"/>
-      <c r="B34" s="132"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -13841,7 +13841,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="70"/>
       <c r="E35" s="70"/>
@@ -13857,7 +13857,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="70"/>
       <c r="E36" s="70"/>
@@ -13870,10 +13870,10 @@
     <row r="37" spans="1:10" ht="14">
       <c r="A37" s="107"/>
       <c r="B37" s="108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="70"/>
       <c r="E37" s="70"/>
@@ -13888,7 +13888,7 @@
     </row>
     <row r="39" spans="1:10" ht="21">
       <c r="A39" s="96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="97"/>
       <c r="C39" s="98"/>
@@ -13902,14 +13902,14 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="37"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="36"/>
       <c r="C41" s="37"/>
@@ -13921,28 +13921,28 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="36"/>
       <c r="C43" s="37"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="36"/>
       <c r="C44" s="37"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="36"/>
       <c r="C45" s="37"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="36"/>
       <c r="C46" s="37"/>
@@ -13993,10 +13993,10 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="130"/>
+      <c r="G51" s="112"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="113"/>
     </row>
     <row r="52" spans="1:10" ht="14">
       <c r="A52" s="68"/>
@@ -14004,10 +14004,10 @@
       <c r="C52" s="37"/>
       <c r="D52" s="5"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="130"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="113"/>
     </row>
     <row r="53" spans="1:10" ht="14">
       <c r="A53" s="67"/>
@@ -14233,12 +14233,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G5:J5"/>
@@ -14247,6 +14241,12 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:G11"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <hyperlinks>
@@ -14262,14 +14262,67 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
+      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
+      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A8208FA2715C64A841634F2D9D0061C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0142632bfc745cbd3590bc04c866e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f931156-b907-4802-85d4-da78b74d2c50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52bad56f1cedf5a7e96bfe3d7dae91ef" ns2:_="">
     <xsd:import namespace="3f931156-b907-4802-85d4-da78b74d2c50"/>
@@ -14442,77 +14495,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
-      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
-      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAB445C-65E8-4095-B725-2E676BF1AE69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14530,20 +14540,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C136528-40FF-1C41-B9E7-7422C499F2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C37DC0-C533-CB43-BA6C-FE34D4362365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12239,45 +12239,6 @@
     <xf numFmtId="1" fontId="3" fillId="24" borderId="20" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12329,6 +12290,41 @@
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="%" xfId="48" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -12762,8 +12758,8 @@
   </sheetPr>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -13394,13 +13390,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="88"/>
-      <c r="G5" s="130">
+      <c r="G5" s="117">
         <f ca="1">NOW()</f>
-        <v>45468.523622916669</v>
+        <v>45482.65773900463</v>
       </c>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:13" ht="55" customHeight="1">
       <c r="B6" s="93" t="s">
@@ -13425,10 +13421,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="92"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="1:13" ht="14">
       <c r="C8" s="62">
@@ -13436,22 +13432,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="14">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="135"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="135"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="122"/>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="55" t="s">
@@ -13461,15 +13457,15 @@
       <c r="C10" s="81">
         <v>10</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="139"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
@@ -13479,10 +13475,10 @@
       <c r="C11" s="81">
         <v>250</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
       <c r="H11" s="33"/>
       <c r="J11" s="7"/>
     </row>
@@ -13494,9 +13490,9 @@
       <c r="C12" s="81">
         <v>0</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -13510,24 +13506,24 @@
       <c r="C13" s="81">
         <v>12</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="127"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
       <c r="M13" s="62" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
       <c r="E15" s="44" t="s">
         <v>10</v>
       </c>
@@ -13550,26 +13546,26 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="119"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="134"/>
     </row>
     <row r="17" spans="1:11" ht="122" customHeight="1">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
       <c r="E17" s="28">
         <v>10</v>
       </c>
@@ -13824,8 +13820,8 @@
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="129"/>
+      <c r="B34" s="130"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -13993,10 +13989,10 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="113"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="141"/>
     </row>
     <row r="52" spans="1:10" ht="14">
       <c r="A52" s="68"/>
@@ -14004,10 +14000,10 @@
       <c r="C52" s="37"/>
       <c r="D52" s="5"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="113"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="141"/>
     </row>
     <row r="53" spans="1:10" ht="14">
       <c r="A53" s="67"/>
@@ -14232,7 +14228,11 @@
       <c r="A87" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G5:J5"/>
@@ -14241,12 +14241,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:G11"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <hyperlinks>
@@ -14311,15 +14305,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
-      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
-      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14496,12 +14487,15 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
+      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
+      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14513,11 +14507,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14541,9 +14533,11 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C37DC0-C533-CB43-BA6C-FE34D4362365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AD55AD-5065-D145-BD62-BA876E2F437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11150,22 +11150,10 @@
     <t>CONDITIONS CONTRACTUELLES</t>
   </si>
   <si>
-    <t>L'Annexe « Traitement de Données à caractère personnel » ou « DPA » en date du 23 janvier 2023 :</t>
-  </si>
-  <si>
-    <t>https://storage.gra.cloud.ovh.net/v1/AUTH_325716a587c64897acbef9a4a4726e38/contracts/9e74492-OVH_Data_Protection_Agreement-FR-6.0.pdf</t>
-  </si>
-  <si>
     <t>Se référer aux conditions particulières du produit/service concerné.</t>
   </si>
   <si>
     <t>Paiement à réception de la facture</t>
-  </si>
-  <si>
-    <t>Conditions Générales de Service en date du 6 mai 2022 :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://storage.gra.cloud.ovh.net/v1/AUTH_325716a587c64897acbef9a4a4726e38/contracts/2f391d2-contrat_genServices-FR-14.1.pdf </t>
   </si>
   <si>
     <t>€</t>
@@ -11199,6 +11187,18 @@
   </si>
   <si>
     <t>Frais d'installation HT</t>
+  </si>
+  <si>
+    <t>https://storage.gra.cloud.ovh.net/v1/AUTH_325716a587c64897acbef9a4a4726e38/contracts/7ce0301-OVH_Data_Protection_Agreement-FR-6.2.pdf</t>
+  </si>
+  <si>
+    <t>L'Annexe « Traitement de Données à caractère personnel » ou « DPA » en date du 9 août 2023 :</t>
+  </si>
+  <si>
+    <t>Conditions Générales de Service en date du 11 juin 2024 :</t>
+  </si>
+  <si>
+    <t>https://storage.gra.cloud.ovh.net/v1/AUTH_325716a587c64897acbef9a4a4726e38/contracts/9973515-contrat_genServices-FR-15.1.pdf</t>
   </si>
 </sst>
 </file>
@@ -12239,6 +12239,39 @@
     <xf numFmtId="1" fontId="3" fillId="24" borderId="20" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12290,41 +12323,10 @@
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="57" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="%" xfId="48" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -12758,8 +12760,8 @@
   </sheetPr>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -13358,7 +13360,7 @@
     </row>
     <row r="2" spans="1:13" ht="20">
       <c r="A2" s="100" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
@@ -13384,23 +13386,23 @@
     </row>
     <row r="5" spans="1:13" ht="14">
       <c r="C5" s="61" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E5" s="87" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="88"/>
-      <c r="G5" s="117">
+      <c r="G5" s="128">
         <f ca="1">NOW()</f>
-        <v>45482.65773900463</v>
+        <v>45567.759123958334</v>
       </c>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="129"/>
     </row>
     <row r="6" spans="1:13" ht="55" customHeight="1">
       <c r="B6" s="93" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>27</v>
@@ -13421,10 +13423,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="92"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="131"/>
     </row>
     <row r="8" spans="1:13" ht="14">
       <c r="C8" s="62">
@@ -13432,22 +13434,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="14">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="122"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="122"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="133"/>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="55" t="s">
@@ -13457,15 +13459,15 @@
       <c r="C10" s="81">
         <v>10</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="126"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="137"/>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
@@ -13475,10 +13477,10 @@
       <c r="C11" s="81">
         <v>250</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
       <c r="H11" s="33"/>
       <c r="J11" s="7"/>
     </row>
@@ -13490,9 +13492,9 @@
       <c r="C12" s="81">
         <v>0</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -13506,24 +13508,24 @@
       <c r="C13" s="81">
         <v>12</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="125"/>
       <c r="M13" s="62" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="137"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="120"/>
       <c r="E15" s="44" t="s">
         <v>10</v>
       </c>
@@ -13532,13 +13534,13 @@
         <v>Tarif unitaire €HT/mois</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J15" s="16" t="str">
         <f>"Prix "&amp;C5&amp;"HT/mois"</f>
@@ -13546,26 +13548,26 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="117"/>
     </row>
     <row r="17" spans="1:11" ht="122" customHeight="1">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="28">
         <v>10</v>
       </c>
@@ -13699,7 +13701,7 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="76" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
@@ -13820,8 +13822,8 @@
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="129"/>
-      <c r="B34" s="130"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -13837,7 +13839,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" s="70"/>
       <c r="E35" s="70"/>
@@ -13853,7 +13855,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D36" s="70"/>
       <c r="E36" s="70"/>
@@ -13866,10 +13868,10 @@
     <row r="37" spans="1:10" ht="14">
       <c r="A37" s="107"/>
       <c r="B37" s="108" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D37" s="70"/>
       <c r="E37" s="70"/>
@@ -13898,14 +13900,14 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="64" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="37"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="65" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="36"/>
       <c r="C41" s="37"/>
@@ -13917,28 +13919,28 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="66" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B43" s="36"/>
       <c r="C43" s="37"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>31</v>
+      <c r="A44" s="140" t="s">
+        <v>43</v>
       </c>
       <c r="B44" s="36"/>
       <c r="C44" s="37"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="67" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B45" s="36"/>
       <c r="C45" s="37"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>35</v>
+      <c r="A46" s="141" t="s">
+        <v>46</v>
       </c>
       <c r="B46" s="36"/>
       <c r="C46" s="37"/>
@@ -13989,10 +13991,10 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="141"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" ht="14">
       <c r="A52" s="68"/>
@@ -14000,10 +14002,10 @@
       <c r="C52" s="37"/>
       <c r="D52" s="5"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="141"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10" ht="14">
       <c r="A53" s="67"/>
@@ -14229,11 +14231,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G7:J7"/>
@@ -14241,79 +14238,33 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A46" r:id="rId1" display="https://storage.gra.cloud.ovh.net/v1/AUTH_325716a587c64897acbef9a4a4726e38/contracts/9eae50b-Contract_Professional_Services-FR-1.0.pdf " xr:uid="{30AE7B39-CB55-6143-880E-9274BFAE3726}"/>
-    <hyperlink ref="A44" r:id="rId2" xr:uid="{2D44417F-1253-8C46-A861-31A8BAC0C977}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="69" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="8" scale="69" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
+      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
+      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A8208FA2715C64A841634F2D9D0061C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0142632bfc745cbd3590bc04c866e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f931156-b907-4802-85d4-da78b74d2c50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52bad56f1cedf5a7e96bfe3d7dae91ef" ns2:_="">
     <xsd:import namespace="3f931156-b907-4802-85d4-da78b74d2c50"/>
@@ -14486,35 +14437,76 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
-      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
-      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAB445C-65E8-4095-B725-2E676BF1AE69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14532,12 +14524,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AD55AD-5065-D145-BD62-BA876E2F437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE74505-1BC2-0845-887A-FFEC605A37FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10640,7 +10640,7 @@
     <definedName name="Portails" hidden="1">{"' calendrier 2000'!$A$1:$Q$38"}</definedName>
     <definedName name="pp" hidden="1">{#N/A,#N/A,FALSE,"Calc";#N/A,#N/A,FALSE,"Sensitivity";#N/A,#N/A,FALSE,"LT Earn.Dil.";#N/A,#N/A,FALSE,"Dil. AVP"}</definedName>
     <definedName name="Pres" hidden="1">{#N/A,#N/A,TRUE,"Cover sheet";#N/A,#N/A,TRUE,"Summary";#N/A,#N/A,TRUE,"Key Assumptions";#N/A,#N/A,TRUE,"Profit &amp; Loss";#N/A,#N/A,TRUE,"Balance Sheet";#N/A,#N/A,TRUE,"Cashflow";#N/A,#N/A,TRUE,"IRR";#N/A,#N/A,TRUE,"Ratios";#N/A,#N/A,TRUE,"Debt analysis"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">quote!$A$1:$J$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">quote!$A$1:$J$81</definedName>
     <definedName name="Print_CSC_Report_2" hidden="1">{"CSC_1",#N/A,FALSE,"CSC Outputs";"CSC_2",#N/A,FALSE,"CSC Outputs"}</definedName>
     <definedName name="Print_CSC_Report_3" hidden="1">{"CSC_1",#N/A,FALSE,"CSC Outputs";"CSC_2",#N/A,FALSE,"CSC Outputs"}</definedName>
     <definedName name="print4" hidden="1">{#N/A,#N/A,FALSE,"Operations";#N/A,#N/A,FALSE,"Financials"}</definedName>
@@ -11034,7 +11034,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Référence devis </t>
   </si>
@@ -11187,18 +11187,6 @@
   </si>
   <si>
     <t>Frais d'installation HT</t>
-  </si>
-  <si>
-    <t>https://storage.gra.cloud.ovh.net/v1/AUTH_325716a587c64897acbef9a4a4726e38/contracts/7ce0301-OVH_Data_Protection_Agreement-FR-6.2.pdf</t>
-  </si>
-  <si>
-    <t>L'Annexe « Traitement de Données à caractère personnel » ou « DPA » en date du 9 août 2023 :</t>
-  </si>
-  <si>
-    <t>Conditions Générales de Service en date du 11 juin 2024 :</t>
-  </si>
-  <si>
-    <t>https://storage.gra.cloud.ovh.net/v1/AUTH_325716a587c64897acbef9a4a4726e38/contracts/9973515-contrat_genServices-FR-15.1.pdf</t>
   </si>
 </sst>
 </file>
@@ -11972,7 +11960,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
@@ -12322,10 +12310,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="57" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -12758,10 +12742,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -13394,7 +13378,7 @@
       <c r="F5" s="88"/>
       <c r="G5" s="128">
         <f ca="1">NOW()</f>
-        <v>45567.759123958334</v>
+        <v>45583.963044328702</v>
       </c>
       <c r="H5" s="128"/>
       <c r="I5" s="128"/>
@@ -13787,7 +13771,7 @@
       <c r="H30" s="80"/>
       <c r="I30" s="80"/>
       <c r="J30" s="52">
-        <f>J29*1.2</f>
+        <f>J29*(1+$C$8/100)</f>
         <v>41871.575999999994</v>
       </c>
     </row>
@@ -13918,78 +13902,101 @@
       <c r="C42" s="37"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="66" t="s">
-        <v>44</v>
-      </c>
+      <c r="A43" s="66"/>
       <c r="B43" s="36"/>
       <c r="C43" s="37"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="67" t="s">
-        <v>45</v>
-      </c>
       <c r="B45" s="36"/>
       <c r="C45" s="37"/>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="141" t="s">
-        <v>46</v>
+    <row r="46" spans="1:10" ht="15">
+      <c r="A46" s="109" t="s">
+        <v>19</v>
       </c>
       <c r="B46" s="36"/>
       <c r="C46" s="37"/>
+      <c r="D46" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="77"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" ht="14">
       <c r="A47" s="66"/>
       <c r="B47" s="36"/>
       <c r="C47" s="37"/>
+      <c r="D47" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="110"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
+    <row r="48" spans="1:10" ht="14">
+      <c r="A48" s="68"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" ht="14">
+      <c r="A49" s="67"/>
       <c r="B49" s="36"/>
       <c r="C49" s="37"/>
+      <c r="D49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" ht="15">
-      <c r="A50" s="109" t="s">
-        <v>19</v>
-      </c>
+    <row r="50" spans="1:10" ht="14">
+      <c r="A50" s="68"/>
       <c r="B50" s="36"/>
       <c r="C50" s="37"/>
-      <c r="D50" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="77"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" ht="14">
       <c r="A51" s="66"/>
       <c r="B51" s="36"/>
       <c r="C51" s="37"/>
-      <c r="D51" s="10" t="s">
-        <v>14</v>
+      <c r="D51" s="12" t="s">
+        <v>16</v>
       </c>
-      <c r="E51" s="6"/>
+      <c r="E51" s="15"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -14000,7 +14007,8 @@
       <c r="A52" s="68"/>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -14012,7 +14020,7 @@
       <c r="B53" s="36"/>
       <c r="C53" s="37"/>
       <c r="D53" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -14037,10 +14045,8 @@
       <c r="A55" s="66"/>
       <c r="B55" s="36"/>
       <c r="C55" s="37"/>
-      <c r="D55" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="15"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -14051,8 +14057,8 @@
       <c r="A56" s="68"/>
       <c r="B56" s="36"/>
       <c r="C56" s="37"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="15"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -14060,12 +14066,10 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" ht="14">
-      <c r="A57" s="67"/>
+      <c r="A57"/>
       <c r="B57" s="36"/>
       <c r="C57" s="37"/>
-      <c r="D57" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -14077,69 +14081,41 @@
       <c r="A58" s="68"/>
       <c r="B58" s="36"/>
       <c r="C58" s="37"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="7"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:10" ht="14">
+    <row r="59" spans="1:10">
       <c r="A59" s="66"/>
       <c r="B59" s="36"/>
       <c r="C59" s="37"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="7"/>
+      <c r="D59" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="60" spans="1:10" ht="14">
+    <row r="60" spans="1:10">
       <c r="A60" s="68"/>
       <c r="B60" s="36"/>
       <c r="C60" s="37"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" ht="14">
-      <c r="A61"/>
+    <row r="61" spans="1:10">
+      <c r="A61" s="67"/>
       <c r="B61" s="36"/>
       <c r="C61" s="37"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" ht="14">
+    <row r="62" spans="1:10">
       <c r="A62" s="68"/>
       <c r="B62" s="36"/>
       <c r="C62" s="37"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="66"/>
       <c r="B63" s="36"/>
       <c r="C63" s="37"/>
-      <c r="D63" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="68"/>
@@ -14163,28 +14139,20 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="68"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="37"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="67"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="37"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" ht="15" customHeight="1">
       <c r="A70" s="68"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="37"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" ht="15" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="37"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="68"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" ht="16" customHeight="1">
       <c r="A73" s="67"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1">
@@ -14193,41 +14161,29 @@
     <row r="75" spans="1:3" ht="15" customHeight="1">
       <c r="A75" s="66"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" ht="15" customHeight="1">
       <c r="A76" s="68"/>
     </row>
-    <row r="77" spans="1:3" ht="16" customHeight="1">
+    <row r="77" spans="1:3" ht="15" customHeight="1">
       <c r="A77" s="67"/>
     </row>
     <row r="78" spans="1:3" ht="15" customHeight="1">
       <c r="A78" s="68"/>
     </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1">
+    <row r="79" spans="1:3">
       <c r="A79" s="66"/>
     </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1">
+    <row r="80" spans="1:3">
       <c r="A80" s="68"/>
     </row>
-    <row r="81" spans="1:1" ht="15" customHeight="1">
+    <row r="81" spans="1:1">
       <c r="A81" s="67"/>
     </row>
-    <row r="82" spans="1:1" ht="15" customHeight="1">
+    <row r="82" spans="1:1">
       <c r="A82" s="68"/>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="66"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="68"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="67"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="68"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -14253,18 +14209,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
-      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
-      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A8208FA2715C64A841634F2D9D0061C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0142632bfc745cbd3590bc04c866e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f931156-b907-4802-85d4-da78b74d2c50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52bad56f1cedf5a7e96bfe3d7dae91ef" ns2:_="">
     <xsd:import namespace="3f931156-b907-4802-85d4-da78b74d2c50"/>
@@ -14437,7 +14381,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -14446,7 +14390,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -14496,17 +14440,19 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
+      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
+      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAB445C-65E8-4095-B725-2E676BF1AE69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14524,7 +14470,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -14532,10 +14478,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE74505-1BC2-0845-887A-FFEC605A37FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81BFDC-03EE-6A45-80FB-658398354F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11034,7 +11034,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t xml:space="preserve">Référence devis </t>
   </si>
@@ -11188,6 +11188,30 @@
   <si>
     <t>Frais d'installation HT</t>
   </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>vat</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>support %</t>
+  </si>
+  <si>
+    <t>support min</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>vat %</t>
+  </si>
 </sst>
 </file>
 
@@ -11200,7 +11224,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -11453,12 +11477,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -11479,6 +11497,18 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF9B9B9B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -11958,9 +11988,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
@@ -12103,8 +12133,6 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="47" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -12146,7 +12174,6 @@
     <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="40" fillId="24" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="27" fillId="24" borderId="14" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -12180,7 +12207,7 @@
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="24" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="43" fillId="24" borderId="14" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="42" fillId="24" borderId="14" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12227,6 +12254,48 @@
     <xf numFmtId="1" fontId="3" fillId="24" borderId="20" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="24" borderId="11" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="24" borderId="12" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="19" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -12269,47 +12338,18 @@
     <xf numFmtId="0" fontId="27" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="21" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="21" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="24" borderId="11" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="21" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="24" borderId="12" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="19" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="44" fillId="24" borderId="21" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -12742,10 +12782,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -13330,7 +13370,7 @@
     <col min="16131" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:21">
       <c r="A1" s="59"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -13341,22 +13381,76 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
       <c r="J1" s="20"/>
+      <c r="M1" s="138" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="138" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="138" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="138" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="138" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="138" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="20">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:21" ht="20">
+      <c r="A2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+      <c r="M2" s="139" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="139" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="140">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="141">
+        <v>10</v>
+      </c>
+      <c r="S2" s="141">
+        <v>250</v>
+      </c>
+      <c r="T2" s="141">
+        <v>12</v>
+      </c>
+      <c r="U2" s="141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:21">
       <c r="A3" s="60"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -13368,153 +13462,130 @@
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="5" spans="1:13" ht="14">
-      <c r="C5" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="87" t="s">
+    <row r="4" spans="1:21">
+      <c r="L4" s="137"/>
+    </row>
+    <row r="5" spans="1:21" ht="14">
+      <c r="E5" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="128">
+      <c r="F5" s="85"/>
+      <c r="G5" s="111">
         <f ca="1">NOW()</f>
-        <v>45583.963044328702</v>
+        <v>45583.976795254632</v>
       </c>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="129"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="112"/>
     </row>
-    <row r="6" spans="1:13" ht="55" customHeight="1">
-      <c r="B6" s="93" t="s">
+    <row r="6" spans="1:21" ht="55" customHeight="1">
+      <c r="B6" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="J6" s="90"/>
+      <c r="F6" s="83"/>
+      <c r="J6" s="87"/>
     </row>
-    <row r="7" spans="1:13" ht="14">
-      <c r="A7" s="69"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="91" t="s">
+    <row r="7" spans="1:21" ht="14">
+      <c r="A7" s="67"/>
+      <c r="B7" s="82"/>
+      <c r="E7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="131"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="114"/>
     </row>
-    <row r="8" spans="1:13" ht="14">
-      <c r="C8" s="62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="14">
-      <c r="A9" s="132" t="s">
+    <row r="9" spans="1:21" s="6" customFormat="1" ht="14">
+      <c r="A9" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="132" t="s">
+      <c r="B9" s="116"/>
+      <c r="D9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="133"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="116"/>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="14" customHeight="1">
+    <row r="10" spans="1:21" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="56"/>
-      <c r="C10" s="81">
-        <v>10</v>
-      </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="137"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="32"/>
-      <c r="C11" s="81">
-        <v>250</v>
-      </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
       <c r="H11" s="33"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="35"/>
-      <c r="C12" s="81">
-        <v>0</v>
-      </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="81">
-        <v>12</v>
-      </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="125"/>
-      <c r="M13" s="62" t="s">
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="136"/>
+      <c r="M13" s="61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A15" s="118" t="s">
+    <row r="14" spans="1:21">
+      <c r="L14" s="137"/>
+    </row>
+    <row r="15" spans="1:21" s="6" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A15" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="120"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="131"/>
       <c r="E15" s="44" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="16" t="str">
-        <f>"Tarif unitaire "&amp;C5&amp;"HT/mois"</f>
+        <f>"Tarif unitaire "&amp;M2&amp;"HT/mois"</f>
         <v>Tarif unitaire €HT/mois</v>
       </c>
       <c r="G15" s="16" t="s">
@@ -13527,41 +13598,41 @@
         <v>35</v>
       </c>
       <c r="J15" s="16" t="str">
-        <f>"Prix "&amp;C5&amp;"HT/mois"</f>
+        <f>"Prix "&amp;M2&amp;"HT/mois"</f>
         <v>Prix €HT/mois</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="A16" s="114" t="s">
+    <row r="16" spans="1:21" ht="18" customHeight="1">
+      <c r="A16" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="128"/>
     </row>
     <row r="17" spans="1:11" ht="122" customHeight="1">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
       <c r="E17" s="28">
         <v>10</v>
       </c>
-      <c r="F17" s="83">
+      <c r="F17" s="80">
         <v>3109</v>
       </c>
       <c r="G17" s="29">
         <v>1</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="108">
         <v>36</v>
       </c>
       <c r="I17" s="57">
@@ -13598,14 +13669,14 @@
     <row r="20" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="2"/>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
       <c r="J20" s="54">
         <f>SUM(J17:J17)</f>
         <v>2642.65</v>
@@ -13613,34 +13684,34 @@
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="D21" s="76" t="str">
-        <f>"SUPPORT "&amp;C9&amp;"  ("&amp;C10&amp;"% Minimum " &amp; C11&amp;")"</f>
+      <c r="D21" s="74" t="str">
+        <f>"SUPPORT "&amp;Q2&amp;"  ("&amp;R2&amp;"% Minimum " &amp; S2&amp;")"</f>
         <v>SUPPORT BUSINESS  (10% Minimum 250)</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
       <c r="J21" s="40">
-        <f>MAX(0.01*$C$10*J20,$C$11)</f>
+        <f>MAX(0.01*$R$2*J20,$S$2)</f>
         <v>264.26500000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="10"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="76" t="str">
-        <f>IF(C12&gt;0,"REMISE Exceptionnelle (-"&amp;C12&amp;"%)","")</f>
+      <c r="D22" s="74" t="str">
+        <f>IF(U2&gt;0,"REMISE Exceptionnelle (-"&amp;U2&amp;"%)","")</f>
         <v/>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="82">
-        <f>(0-J20-J21)*($C$12/100)</f>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="79">
+        <f>(0-J20-J21)*($U$2/100)</f>
         <v>0</v>
       </c>
     </row>
@@ -13648,15 +13719,15 @@
       <c r="A23" s="10"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="76" t="str">
-        <f>"MONTANT MENSUEL HT avec SUPPORT  en "&amp;C6</f>
+      <c r="D23" s="74" t="str">
+        <f>"MONTANT MENSUEL HT avec SUPPORT  en "&amp;N2</f>
         <v>MONTANT MENSUEL HT avec SUPPORT  en EURO</v>
       </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="53">
         <f>J20+J21+J22</f>
         <v>2906.915</v>
@@ -13666,17 +13737,17 @@
       <c r="A24" s="10"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="76" t="str">
-        <f>"TVA ("&amp;$C$8&amp;"%)"</f>
+      <c r="D24" s="74" t="str">
+        <f>"TVA ("&amp;$P$2&amp;"%)"</f>
         <v>TVA (20%)</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="95">
-        <f>$C$8*J23/100</f>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="92">
+        <f>$P$2*J23/100</f>
         <v>581.38300000000004</v>
       </c>
     </row>
@@ -13684,94 +13755,94 @@
       <c r="A25" s="10"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
       <c r="J25" s="18">
         <f>SUM(E17:E18)</f>
         <v>10</v>
       </c>
-      <c r="K25" s="94"/>
+      <c r="K25" s="91"/>
     </row>
     <row r="26" spans="1:11" ht="14" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="94"/>
+      <c r="K26" s="91"/>
     </row>
     <row r="27" spans="1:11" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A27" s="10"/>
-      <c r="D27" s="76" t="str">
-        <f>"MONTANT MENSUEL TTC avec SUPPORT  EN "&amp;C6</f>
+      <c r="D27" s="74" t="str">
+        <f>"MONTANT MENSUEL TTC avec SUPPORT  EN "&amp;N2</f>
         <v>MONTANT MENSUEL TTC avec SUPPORT  EN EURO</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
       <c r="J27" s="39">
-        <f>J23*(1+$C$8/100)</f>
+        <f>J23*(1+$P$2/100)</f>
         <v>3488.2979999999998</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A28" s="10"/>
-      <c r="D28" s="76" t="str">
-        <f>"Frais d'installation TTC en "&amp;C6</f>
+      <c r="D28" s="74" t="str">
+        <f>"Frais d'installation TTC en "&amp;N2</f>
         <v>Frais d'installation TTC en EURO</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
       <c r="J28" s="51">
-        <f>J25*(1+$C$8/100)</f>
+        <f>J25*(1+$P$2/100)</f>
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A29" s="10"/>
-      <c r="D29" s="76" t="str">
-        <f>"BUDGET EN "&amp;C6&amp;" HT ("&amp;$C$13&amp;" Mois)"</f>
+      <c r="D29" s="74" t="str">
+        <f>"BUDGET EN "&amp;N2&amp;" HT ("&amp;$T$2&amp;" Mois)"</f>
         <v>BUDGET EN EURO HT (12 Mois)</v>
       </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
       <c r="J29" s="39">
-        <f>J23*$C$13+J25</f>
+        <f>J23*$T$2+J25</f>
         <v>34892.979999999996</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="6" customFormat="1" ht="15.5" customHeight="1">
       <c r="A30" s="10"/>
-      <c r="D30" s="79" t="str">
-        <f>"BUDGET EN "&amp;C6&amp;" TTC ("&amp;$C$13&amp;" Mois) - "&amp;$C$7&amp;" "&amp;$C$8&amp;"%"</f>
+      <c r="D30" s="77" t="str">
+        <f>"BUDGET EN "&amp;N2&amp;" TTC ("&amp;$T$2&amp;" Mois) - "&amp;$O$2&amp;" "&amp;$P$2&amp;"%"</f>
         <v>BUDGET EN EURO TTC (12 Mois) - TVA 20%</v>
       </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
       <c r="J30" s="52">
-        <f>J29*(1+$C$8/100)</f>
+        <f>J29*(1+$P$2/100)</f>
         <v>41871.575999999994</v>
       </c>
     </row>
@@ -13806,8 +13877,8 @@
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="112"/>
-      <c r="B34" s="113"/>
+      <c r="A34" s="123"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -13818,128 +13889,128 @@
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="14">
-      <c r="A35" s="103"/>
-      <c r="B35" s="104" t="s">
+      <c r="A35" s="100"/>
+      <c r="B35" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="71"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="69"/>
     </row>
     <row r="36" spans="1:10" ht="14">
-      <c r="A36" s="105"/>
-      <c r="B36" s="106" t="s">
+      <c r="A36" s="102"/>
+      <c r="B36" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="71"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="69"/>
     </row>
     <row r="37" spans="1:10" ht="14">
-      <c r="A37" s="107"/>
-      <c r="B37" s="108" t="s">
+      <c r="A37" s="104"/>
+      <c r="B37" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="71"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="84"/>
+      <c r="A38" s="81"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="99"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="96"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="62" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="37"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="63" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="36"/>
       <c r="C41" s="37"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="65"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="36"/>
       <c r="C42" s="37"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="66"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="36"/>
       <c r="C43" s="37"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="110"/>
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
+      <c r="A44" s="107"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" s="36"/>
       <c r="C45" s="37"/>
     </row>
     <row r="46" spans="1:10" ht="15">
-      <c r="A46" s="109" t="s">
+      <c r="A46" s="106" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="36"/>
       <c r="C46" s="37"/>
-      <c r="D46" s="72" t="s">
+      <c r="D46" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="77"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="75"/>
     </row>
     <row r="47" spans="1:10" ht="14">
-      <c r="A47" s="66"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="36"/>
       <c r="C47" s="37"/>
       <c r="D47" s="10" t="s">
@@ -13953,7 +14024,7 @@
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" ht="14">
-      <c r="A48" s="68"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="36"/>
       <c r="C48" s="37"/>
       <c r="D48" s="5"/>
@@ -13964,7 +14035,7 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" ht="14">
-      <c r="A49" s="67"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="36"/>
       <c r="C49" s="37"/>
       <c r="D49" s="10" t="s">
@@ -13978,7 +14049,7 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" ht="14">
-      <c r="A50" s="68"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="36"/>
       <c r="C50" s="37"/>
       <c r="D50" s="10"/>
@@ -13990,7 +14061,7 @@
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" ht="14">
-      <c r="A51" s="66"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="36"/>
       <c r="C51" s="37"/>
       <c r="D51" s="12" t="s">
@@ -14004,7 +14075,7 @@
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" ht="14">
-      <c r="A52" s="68"/>
+      <c r="A52" s="66"/>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
       <c r="D52" s="12"/>
@@ -14016,7 +14087,7 @@
       <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10" ht="14">
-      <c r="A53" s="67"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="36"/>
       <c r="C53" s="37"/>
       <c r="D53" s="10" t="s">
@@ -14030,7 +14101,7 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" ht="14">
-      <c r="A54" s="68"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="36"/>
       <c r="C54" s="37"/>
       <c r="D54" s="10"/>
@@ -14042,7 +14113,7 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" ht="14">
-      <c r="A55" s="66"/>
+      <c r="A55" s="64"/>
       <c r="B55" s="36"/>
       <c r="C55" s="37"/>
       <c r="D55" s="10"/>
@@ -14054,7 +14125,7 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" ht="14">
-      <c r="A56" s="68"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="36"/>
       <c r="C56" s="37"/>
       <c r="D56" s="10"/>
@@ -14078,7 +14149,7 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" ht="14">
-      <c r="A58" s="68"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="36"/>
       <c r="C58" s="37"/>
       <c r="D58" s="11"/>
@@ -14090,7 +14161,7 @@
       <c r="J58" s="9"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="66"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="36"/>
       <c r="C59" s="37"/>
       <c r="D59" s="1" t="s">
@@ -14098,95 +14169,100 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="68"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="36"/>
       <c r="C60" s="37"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="67"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="36"/>
       <c r="C61" s="37"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="68"/>
+      <c r="A62" s="66"/>
       <c r="B62" s="36"/>
       <c r="C62" s="37"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="66"/>
+      <c r="A63" s="64"/>
       <c r="B63" s="36"/>
       <c r="C63" s="37"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="68"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="36"/>
       <c r="C64" s="37"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="67"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="36"/>
       <c r="C65" s="37"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="68"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="36"/>
       <c r="C66" s="37"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="66"/>
+      <c r="A67" s="64"/>
       <c r="B67" s="36"/>
       <c r="C67" s="37"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="68"/>
+      <c r="A68" s="66"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="67"/>
+      <c r="A69" s="65"/>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1">
-      <c r="A70" s="68"/>
+      <c r="A70" s="66"/>
     </row>
     <row r="71" spans="1:3" ht="15" customHeight="1">
-      <c r="A71" s="66"/>
+      <c r="A71" s="64"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="68"/>
+      <c r="A72" s="66"/>
     </row>
     <row r="73" spans="1:3" ht="16" customHeight="1">
-      <c r="A73" s="67"/>
+      <c r="A73" s="65"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1">
-      <c r="A74" s="68"/>
+      <c r="A74" s="66"/>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1">
-      <c r="A75" s="66"/>
+      <c r="A75" s="64"/>
     </row>
     <row r="76" spans="1:3" ht="15" customHeight="1">
-      <c r="A76" s="68"/>
+      <c r="A76" s="66"/>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1">
-      <c r="A77" s="67"/>
+      <c r="A77" s="65"/>
     </row>
     <row r="78" spans="1:3" ht="15" customHeight="1">
-      <c r="A78" s="68"/>
+      <c r="A78" s="66"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="66"/>
+      <c r="A79" s="64"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="68"/>
+      <c r="A80" s="66"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="67"/>
+      <c r="A81" s="65"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="68"/>
+      <c r="A82" s="66"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="66"/>
+      <c r="A83" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G7:J7"/>
@@ -14194,13 +14270,8 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:G11"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D13:J13"/>
   </mergeCells>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="69" orientation="portrait" r:id="rId1"/>
@@ -14382,12 +14453,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
+      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
+      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14441,15 +14515,12 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
-      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
-      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14471,9 +14542,11 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14487,11 +14560,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81BFDC-03EE-6A45-80FB-658398354F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC1CDEA-F746-994B-B91F-98FDE0FD23F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12254,47 +12254,18 @@
     <xf numFmtId="1" fontId="3" fillId="24" borderId="20" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="21" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="21" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="24" borderId="11" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="21" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="24" borderId="12" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="19" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="44" fillId="24" borderId="21" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -12338,18 +12309,47 @@
     <xf numFmtId="0" fontId="27" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="21" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="21" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="21" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="15" fontId="3" fillId="24" borderId="11" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="24" borderId="21" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="15" fontId="3" fillId="24" borderId="12" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="19" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -12784,8 +12784,8 @@
   </sheetPr>
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -12794,7 +12794,7 @@
     <col min="2" max="2" width="72.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
@@ -13381,31 +13381,31 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
       <c r="J1" s="20"/>
-      <c r="M1" s="138" t="s">
+      <c r="M1" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="138" t="s">
+      <c r="N1" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="138" t="s">
+      <c r="O1" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="138" t="s">
+      <c r="P1" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="138" t="s">
+      <c r="Q1" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="138" t="s">
+      <c r="R1" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="138" t="s">
+      <c r="S1" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="138" t="s">
+      <c r="T1" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="138" t="s">
+      <c r="U1" s="110" t="s">
         <v>49</v>
       </c>
     </row>
@@ -13422,31 +13422,31 @@
       <c r="H2" s="98"/>
       <c r="I2" s="98"/>
       <c r="J2" s="99"/>
-      <c r="M2" s="139" t="s">
+      <c r="M2" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="139" t="s">
+      <c r="N2" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="140" t="s">
+      <c r="O2" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="140">
+      <c r="P2" s="112">
         <v>20</v>
       </c>
-      <c r="Q2" s="140" t="s">
+      <c r="Q2" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="141">
+      <c r="R2" s="113">
         <v>10</v>
       </c>
-      <c r="S2" s="141">
+      <c r="S2" s="113">
         <v>250</v>
       </c>
-      <c r="T2" s="141">
+      <c r="T2" s="113">
         <v>12</v>
       </c>
-      <c r="U2" s="141">
+      <c r="U2" s="113">
         <v>0</v>
       </c>
     </row>
@@ -13463,20 +13463,20 @@
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="L4" s="137"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="1:21" ht="14">
       <c r="E5" s="84" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="85"/>
-      <c r="G5" s="111">
+      <c r="G5" s="130">
         <f ca="1">NOW()</f>
-        <v>45583.976795254632</v>
+        <v>45681.509235879632</v>
       </c>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="112"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
     </row>
     <row r="6" spans="1:21" ht="55" customHeight="1">
       <c r="B6" s="90" t="s">
@@ -13495,50 +13495,50 @@
         <v>2</v>
       </c>
       <c r="F7" s="89"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="114"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="133"/>
     </row>
     <row r="9" spans="1:21" s="6" customFormat="1" ht="14">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="D9" s="115" t="s">
+      <c r="B9" s="135"/>
+      <c r="D9" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="116"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:21" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="56"/>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="139"/>
     </row>
     <row r="11" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="32"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="33"/>
       <c r="J11" s="7"/>
     </row>
@@ -13547,9 +13547,9 @@
         <v>7</v>
       </c>
       <c r="B12" s="35"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -13560,27 +13560,27 @@
         <v>8</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="136"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="127"/>
       <c r="M13" s="61" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="L14" s="137"/>
+      <c r="L14" s="109"/>
     </row>
     <row r="15" spans="1:21" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="131"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="44" t="s">
         <v>10</v>
       </c>
@@ -13603,26 +13603,26 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="128"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="119"/>
     </row>
     <row r="17" spans="1:11" ht="122" customHeight="1">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
       <c r="E17" s="28">
         <v>10</v>
       </c>
@@ -13877,8 +13877,8 @@
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="123"/>
-      <c r="B34" s="124"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -14258,11 +14258,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G7:J7"/>
@@ -14270,6 +14265,11 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14280,6 +14280,77 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
+      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
+      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A8208FA2715C64A841634F2D9D0061C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0142632bfc745cbd3590bc04c866e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f931156-b907-4802-85d4-da78b74d2c50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52bad56f1cedf5a7e96bfe3d7dae91ef" ns2:_="">
     <xsd:import namespace="3f931156-b907-4802-85d4-da78b74d2c50"/>
@@ -14452,78 +14523,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
-      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
-      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAB445C-65E8-4095-B725-2E676BF1AE69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14539,30 +14565,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC1CDEA-F746-994B-B91F-98FDE0FD23F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3186265E-3D3A-B14F-B803-57571C481DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12267,6 +12267,48 @@
     <xf numFmtId="2" fontId="44" fillId="24" borderId="21" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="24" borderId="11" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="24" borderId="12" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="19" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -12307,48 +12349,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="24" borderId="11" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="24" borderId="12" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="19" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12794,11 +12794,11 @@
     <col min="2" max="2" width="72.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="1" customWidth="1"/>
     <col min="11" max="250" width="11.5" style="1"/>
     <col min="251" max="251" width="10.33203125" style="1" customWidth="1"/>
@@ -13470,13 +13470,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="85"/>
-      <c r="G5" s="130">
+      <c r="G5" s="116">
         <f ca="1">NOW()</f>
-        <v>45681.509235879632</v>
+        <v>45701.565672569443</v>
       </c>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="1:21" ht="55" customHeight="1">
       <c r="B6" s="90" t="s">
@@ -13495,50 +13495,50 @@
         <v>2</v>
       </c>
       <c r="F7" s="89"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="9" spans="1:21" s="6" customFormat="1" ht="14">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="D9" s="134" t="s">
+      <c r="B9" s="121"/>
+      <c r="D9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="135"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="121"/>
     </row>
     <row r="10" spans="1:21" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="56"/>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="139"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
     </row>
     <row r="11" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="32"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
       <c r="H11" s="33"/>
       <c r="J11" s="7"/>
     </row>
@@ -13547,9 +13547,9 @@
         <v>7</v>
       </c>
       <c r="B12" s="35"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -13560,13 +13560,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="127"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
       <c r="M13" s="61" t="s">
         <v>41</v>
       </c>
@@ -13575,12 +13575,12 @@
       <c r="L14" s="109"/>
     </row>
     <row r="15" spans="1:21" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="44" t="s">
         <v>10</v>
       </c>
@@ -13603,26 +13603,26 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="119"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="133"/>
     </row>
     <row r="17" spans="1:11" ht="122" customHeight="1">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
       <c r="E17" s="28">
         <v>10</v>
       </c>
@@ -13877,8 +13877,8 @@
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -14258,6 +14258,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G7:J7"/>
@@ -14265,11 +14270,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:G11"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14280,77 +14280,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
-      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
-      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A8208FA2715C64A841634F2D9D0061C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0142632bfc745cbd3590bc04c866e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f931156-b907-4802-85d4-da78b74d2c50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52bad56f1cedf5a7e96bfe3d7dae91ef" ns2:_="">
     <xsd:import namespace="3f931156-b907-4802-85d4-da78b74d2c50"/>
@@ -14523,33 +14452,78 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
+      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
+      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAB445C-65E8-4095-B725-2E676BF1AE69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14565,4 +14539,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3186265E-3D3A-B14F-B803-57571C481DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAC8152-9C13-D74C-8681-A697B1AE83B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12784,8 +12784,8 @@
   </sheetPr>
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -13472,7 +13472,7 @@
       <c r="F5" s="85"/>
       <c r="G5" s="116">
         <f ca="1">NOW()</f>
-        <v>45701.565672569443</v>
+        <v>45938.660065856478</v>
       </c>
       <c r="H5" s="116"/>
       <c r="I5" s="116"/>
@@ -13685,8 +13685,8 @@
     <row r="21" spans="1:11" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A21" s="10"/>
       <c r="D21" s="74" t="str">
-        <f>"SUPPORT "&amp;Q2&amp;"  ("&amp;R2&amp;"% Minimum " &amp; S2&amp;")"</f>
-        <v>SUPPORT BUSINESS  (10% Minimum 250)</v>
+        <f>IF(U2&gt;0,"REMISE Exceptionnelle (-"&amp;U2&amp;"%)","")</f>
+        <v/>
       </c>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
@@ -13694,16 +13694,16 @@
       <c r="H21" s="76"/>
       <c r="I21" s="76"/>
       <c r="J21" s="40">
-        <f>MAX(0.01*$R$2*J20,$S$2)</f>
-        <v>264.26500000000004</v>
+        <f>(0-J20)*($U$2/100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="10"/>
       <c r="C22" s="6"/>
       <c r="D22" s="74" t="str">
-        <f>IF(U2&gt;0,"REMISE Exceptionnelle (-"&amp;U2&amp;"%)","")</f>
-        <v/>
+        <f>"SUPPORT "&amp;Q2&amp;"  ("&amp;R2&amp;"% Minimum " &amp; S2&amp;")"</f>
+        <v>SUPPORT BUSINESS  (10% Minimum 250)</v>
       </c>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
@@ -13711,8 +13711,8 @@
       <c r="H22" s="76"/>
       <c r="I22" s="76"/>
       <c r="J22" s="79">
-        <f>(0-J20-J21)*($U$2/100)</f>
-        <v>0</v>
+        <f>MAX(0.01*$R$2*(0+J20+J21),$S$2)</f>
+        <v>264.26500000000004</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16" customHeight="1">
@@ -14280,6 +14280,65 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A8208FA2715C64A841634F2D9D0061C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0142632bfc745cbd3590bc04c866e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f931156-b907-4802-85d4-da78b74d2c50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52bad56f1cedf5a7e96bfe3d7dae91ef" ns2:_="">
     <xsd:import namespace="3f931156-b907-4802-85d4-da78b74d2c50"/>
@@ -14452,7 +14511,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
@@ -14464,66 +14523,23 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAB445C-65E8-4095-B725-2E676BF1AE69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14541,7 +14557,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -14549,20 +14565,4 @@
     <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/static/template_fr.xlsx
+++ b/static/template_fr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tducrot/tdr2d/ovh_pricelist/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAC8152-9C13-D74C-8681-A697B1AE83B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D00FB5-9BB8-434E-A0EE-5FA8B90E5F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12267,6 +12267,48 @@
     <xf numFmtId="2" fontId="44" fillId="24" borderId="21" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="24" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12307,48 +12349,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="56" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="20" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="19" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12785,7 +12785,7 @@
   <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -13470,13 +13470,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="85"/>
-      <c r="G5" s="116">
+      <c r="G5" s="130">
         <f ca="1">NOW()</f>
-        <v>45938.660065856478</v>
+        <v>45938.733312615739</v>
       </c>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
     </row>
     <row r="6" spans="1:21" ht="55" customHeight="1">
       <c r="B6" s="90" t="s">
@@ -13495,50 +13495,50 @@
         <v>2</v>
       </c>
       <c r="F7" s="89"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="133"/>
     </row>
     <row r="9" spans="1:21" s="6" customFormat="1" ht="14">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="D9" s="120" t="s">
+      <c r="B9" s="135"/>
+      <c r="D9" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="121"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:21" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="56"/>
-      <c r="D10" s="123" t="s">
+      <c r="D10" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="139"/>
     </row>
     <row r="11" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="32"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="33"/>
       <c r="J11" s="7"/>
     </row>
@@ -13547,9 +13547,9 @@
         <v>7</v>
       </c>
       <c r="B12" s="35"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -13560,13 +13560,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="127"/>
       <c r="M13" s="61" t="s">
         <v>41</v>
       </c>
@@ -13575,12 +13575,12 @@
       <c r="L14" s="109"/>
     </row>
     <row r="15" spans="1:21" s="6" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="44" t="s">
         <v>10</v>
       </c>
@@ -13603,26 +13603,26 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="119"/>
     </row>
     <row r="17" spans="1:11" ht="122" customHeight="1">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
       <c r="E17" s="28">
         <v>10</v>
       </c>
@@ -13877,8 +13877,8 @@
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="14">
-      <c r="A34" s="128"/>
-      <c r="B34" s="129"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -14258,11 +14258,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G7:J7"/>
@@ -14270,6 +14265,11 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D13:J13"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14280,6 +14280,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -14329,16 +14338,19 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
+      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
+      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A8208FA2715C64A841634F2D9D0061C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0142632bfc745cbd3590bc04c866e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f931156-b907-4802-85d4-da78b74d2c50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52bad56f1cedf5a7e96bfe3d7dae91ef" ns2:_="">
     <xsd:import namespace="3f931156-b907-4802-85d4-da78b74d2c50"/>
@@ -14511,19 +14523,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3f931156-b907-4802-85d4-da78b74d2c50">ZQWJEHJ6PPKV-702331974-10646</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3f931156-b907-4802-85d4-da78b74d2c50">
-      <Url>https://sharepoint.corp.ovh.com/cdmo/_layouts/15/DocIdRedir.aspx?ID=ZQWJEHJ6PPKV-702331974-10646</Url>
-      <Description>ZQWJEHJ6PPKV-702331974-10646</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A2FDBE-E304-4784-B8F6-4B5BC2D4BFC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -14531,15 +14539,17 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A46BBF6-FA99-4790-AC05-0112DDF87C39}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDAB445C-65E8-4095-B725-2E676BF1AE69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14555,14 +14565,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F60EC0-34C7-430C-980D-5238BA26FB73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3f931156-b907-4802-85d4-da78b74d2c50"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>